--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>1.81</v>
@@ -3188,6 +3188,1224 @@
       </c>
       <c r="BK13" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>4933893</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45039.54166666666</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>['39', '90+4']</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>12</v>
+      </c>
+      <c r="T14" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4933894</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45039.54166666666</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>8</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V15" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4933895</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45039.67708333334</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>['43', '74', '76']</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
+      <c r="T16" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4933898</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45040.67708333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>['15', '20', '82', '86']</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>['49', '78']</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>8</v>
+      </c>
+      <c r="S17" t="n">
+        <v>12</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X17" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4933973</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45040.67708333334</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['31', '68', '73']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X18" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4933897</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45040.67708333334</v>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>['14', '22', '54', '60', '67']</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>['2', '33', '40', '90']</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>11</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>1.5</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>1.43</v>
@@ -4406,6 +4406,412 @@
       </c>
       <c r="BK19" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4933900</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45044.70833333334</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>['4', '24', '28', '53', '90+6']</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>['42', '52', '61', '76']</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>11</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X20" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4933899</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>['2', '53', '60']</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK21"/>
+  <dimension ref="A1:BK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>1.32</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -4673,13 +4673,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R21" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="T21" t="n">
         <v>3.1</v>
@@ -4796,22 +4796,834 @@
         <v>1.93</v>
       </c>
       <c r="BF21" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG21" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH21" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI21" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK21" t="n">
-        <v>-1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4933901</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>4933902</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45045.58333333334</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>['71', '75', '78']</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>7</v>
+      </c>
+      <c r="R23" t="n">
+        <v>8</v>
+      </c>
+      <c r="S23" t="n">
+        <v>15</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4933903</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45045.58333333334</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7</v>
+      </c>
+      <c r="S24" t="n">
+        <v>13</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="V24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X24" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4933904</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45045.67708333334</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>['6', '36', '90+7']</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>['80', '88']</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>9</v>
+      </c>
+      <c r="S25" t="n">
+        <v>14</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK25"/>
+  <dimension ref="A1:BK29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT3" t="n">
         <v>2</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU9" t="n">
         <v>1.32</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT16" t="n">
         <v>3</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.26</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU23" t="n">
         <v>1.41</v>
@@ -5624,6 +5624,818 @@
       </c>
       <c r="BK25" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4933905</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45049.625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>['34', '67', '80']</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>8</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4933906</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45049.625</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>['45+7', '50', '74', '88']</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>['59', '83']</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>4933907</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45049.67708333334</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>11</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4933908</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45049.71875</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>['19', '22', '42', '45+2', '58', '82']</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>7</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>13</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK29"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -2933,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>1.81</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU15" t="n">
         <v>1.26</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -6097,10 +6097,10 @@
         <v>8</v>
       </c>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T28" t="n">
         <v>2.07</v>
@@ -6436,6 +6436,412 @@
       </c>
       <c r="BK29" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4933909</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45050.67708333334</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>['8', '11']</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>9</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>14</v>
+      </c>
+      <c r="T30" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4933910</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45050.67708333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>5</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>['25', '57', '63', '71']</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X31" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT4" t="n">
         <v>0.75</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT6" t="n">
         <v>0.33</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
         <v>1.81</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.5</v>
@@ -3336,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>1.26</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>3</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT17" t="n">
         <v>0.33</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU18" t="n">
         <v>1.43</v>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AU21" t="n">
         <v>1.21</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>2.03</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1.83</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.82</v>
@@ -6842,6 +6842,1224 @@
       </c>
       <c r="BK31" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>4933911</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45053.58333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['62', '76']</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4933912</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45053.67708333334</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>['18', '23', '58', '63', '87']</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V33" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4933913</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X34" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4933914</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45054.67708333334</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['28', '59']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>9</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>4933915</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45054.67708333334</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['39', '52']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V36" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4933979</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45054.71875</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>['27', '86']</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" t="n">
+        <v>10</v>
+      </c>
+      <c r="S37" t="n">
+        <v>16</v>
+      </c>
+      <c r="T37" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="V37" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X37" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -7312,13 +7312,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="S34" t="n">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="T34" t="n">
         <v>3.8</v>
@@ -7435,22 +7435,22 @@
         <v>2.14</v>
       </c>
       <c r="BF34" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG34" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BH34" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI34" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BJ34" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK34" t="n">
-        <v>-1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT2" t="n">
         <v>0.8</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>2.25</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1715,7 +1715,7 @@
         <v>1.75</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU9" t="n">
         <v>1.32</v>
@@ -2933,7 +2933,7 @@
         <v>2.25</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU12" t="n">
         <v>1.81</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU19" t="n">
         <v>1.26</v>
@@ -4557,7 +4557,7 @@
         <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU20" t="n">
         <v>2.18</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU23" t="n">
         <v>1.41</v>
@@ -5775,7 +5775,7 @@
         <v>1.75</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU26" t="n">
         <v>1.25</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
@@ -6584,10 +6584,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU30" t="n">
         <v>1.83</v>
@@ -8005,10 +8005,10 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AU37" t="n">
         <v>1.34</v>
@@ -8060,6 +8060,1224 @@
       </c>
       <c r="BK37" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>4933918</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45059.45833333334</v>
+      </c>
+      <c r="F38" t="n">
+        <v>7</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['5', '60', '64', '77']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4933917</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45059.54166666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['1', '29', '44', '90']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+      <c r="S39" t="n">
+        <v>8</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4933922</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45059.54166666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>10</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4933920</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45060.58333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['41', '63']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7</v>
+      </c>
+      <c r="S41" t="n">
+        <v>12</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4933919</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45060.67708333334</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['6', '22']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4933921</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45060.67708333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>7</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>4</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['34', '50', '60']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>12</v>
+      </c>
+      <c r="S43" t="n">
+        <v>15</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK43"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.6</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>2.25</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2.4</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>0.33</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.33</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>3</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU24" t="n">
         <v>2.03</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.34</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>0.8</v>
@@ -9278,6 +9278,615 @@
       </c>
       <c r="BK43" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>4933924</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45067.58333333334</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['47', '54']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V44" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X44" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4933925</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45067.67708333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Keflavík</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>11</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>16</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>6</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4933926</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45067.67708333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['29', '75']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>11</v>
+      </c>
+      <c r="S46" t="n">
+        <v>14</v>
+      </c>
+      <c r="T46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK46"/>
+  <dimension ref="A1:BK49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.6</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT5" t="n">
         <v>3</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT14" t="n">
         <v>2.4</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT16" t="n">
         <v>3</v>
@@ -3948,7 +3948,7 @@
         <v>1.2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU17" t="n">
         <v>1.66</v>
@@ -4151,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU18" t="n">
         <v>1.43</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT19" t="n">
         <v>2.25</v>
@@ -4760,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU21" t="n">
         <v>1.21</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.39</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT26" t="n">
         <v>0.6</v>
@@ -5978,7 +5978,7 @@
         <v>1.6</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU27" t="n">
         <v>1.41</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT30" t="n">
         <v>2.4</v>
@@ -7196,7 +7196,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AU33" t="n">
         <v>1.46</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>3</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT38" t="n">
         <v>0.6</v>
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AU42" t="n">
         <v>1.86</v>
@@ -9474,13 +9474,13 @@
         <v>12</v>
       </c>
       <c r="BI44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ44" t="n">
         <v>17</v>
       </c>
       <c r="BK44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45">
@@ -9887,6 +9887,615 @@
       </c>
       <c r="BK46" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4933923</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45068.625</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['11', '63']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['19', '52', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7</v>
+      </c>
+      <c r="S47" t="n">
+        <v>9</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4933927</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45068.67708333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['56', '90+4']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['75', '85']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X48" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>4933928</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45068.67708333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['10', '31']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>7</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK49"/>
+  <dimension ref="A1:BK55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT2" t="n">
         <v>1.17</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1309,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU9" t="n">
         <v>1.32</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT15" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>1.4</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.01</v>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.8</v>
@@ -4354,7 +4354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU19" t="n">
         <v>1.26</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU20" t="n">
         <v>2.18</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.41</v>
@@ -5775,7 +5775,7 @@
         <v>1.4</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.25</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0.8</v>
@@ -6178,10 +6178,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU29" t="n">
         <v>1.68</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>2.4</v>
@@ -8211,7 +8211,7 @@
         <v>1.4</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU38" t="n">
         <v>1.79</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AT39" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU39" t="n">
         <v>1.52</v>
@@ -8614,7 +8614,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT40" t="n">
         <v>2.4</v>
@@ -8820,7 +8820,7 @@
         <v>0</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AU41" t="n">
         <v>1.25</v>
@@ -9223,10 +9223,10 @@
         <v>0.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.24</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>1</v>
@@ -10496,6 +10496,1224 @@
       </c>
       <c r="BK49" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4933929</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45071.625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>15</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Víkingur Reykjavík</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>['3', '37', '47', '86']</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>8</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4933930</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45071.67708333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>13</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Breidablik</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Valur</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>7</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V51" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X51" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4933931</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45074.58333333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Fylkir</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>ÍBV</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['30', '54']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>7</v>
+      </c>
+      <c r="R52" t="n">
+        <v>9</v>
+      </c>
+      <c r="S52" t="n">
+        <v>16</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4933932</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45074.67708333334</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Stjarnan</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>10</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>14</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>4933934</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45074.67708333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>FH</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>HK</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>['12', '36', '58', '70']</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['6', '17', '47']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>11</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4933933</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Iceland Úrvalsdeild</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45075.54166666666</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>KA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Fram</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['37', '51', '84', '90+3']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['33', '55']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="165">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,24 @@
     <t>['68', '90+3']</t>
   </si>
   <si>
+    <t>['7', '45', '50']</t>
+  </si>
+  <si>
+    <t>['8', '45+3', '64']</t>
+  </si>
+  <si>
+    <t>['29', '51', '62', '83']</t>
+  </si>
+  <si>
+    <t>['90+6', '90+7']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['45+1', '57', '83', '90']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -475,9 +493,6 @@
     <t>['3', '37', '47', '86']</t>
   </si>
   <si>
-    <t>['10']</t>
-  </si>
-  <si>
     <t>['6', '17', '47']</t>
   </si>
   <si>
@@ -485,6 +500,15 @@
   </si>
   <si>
     <t>['59', '62', '73']</t>
+  </si>
+  <si>
+    <t>['12', '19', '71']</t>
+  </si>
+  <si>
+    <t>['14', '45+3']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK57"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1090,7 +1114,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1180,7 +1204,7 @@
         <v>1.57</v>
       </c>
       <c r="AT2">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1281,7 +1305,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1368,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT3">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1472,7 +1496,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1559,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -1663,7 +1687,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1750,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1854,7 +1878,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1941,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2045,7 +2069,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2132,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2236,7 +2260,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2326,7 +2350,7 @@
         <v>0.25</v>
       </c>
       <c r="AT8">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3000,7 +3024,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3087,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT12">
         <v>2.17</v>
@@ -3191,7 +3215,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3382,7 +3406,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3469,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>2.17</v>
@@ -3663,7 +3687,7 @@
         <v>1.57</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -3764,7 +3788,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3851,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
         <v>2.4</v>
@@ -3955,7 +3979,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4042,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT17">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4236,7 +4260,7 @@
         <v>2.5</v>
       </c>
       <c r="AT18">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU18">
         <v>1.43</v>
@@ -4337,7 +4361,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4424,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4528,7 +4552,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4615,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>0.25</v>
@@ -4809,7 +4833,7 @@
         <v>3</v>
       </c>
       <c r="AT21">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU21">
         <v>1.21</v>
@@ -5101,7 +5125,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5382,7 +5406,7 @@
         <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5483,7 +5507,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5570,7 +5594,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT25">
         <v>0</v>
@@ -5761,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>0.5</v>
@@ -5865,7 +5889,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -5955,7 +5979,7 @@
         <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6056,7 +6080,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6146,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="AT28">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6247,7 +6271,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6334,7 +6358,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT29">
         <v>2.4</v>
@@ -6438,7 +6462,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6525,7 +6549,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>2.17</v>
@@ -6629,7 +6653,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6719,7 +6743,7 @@
         <v>2.5</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -6820,7 +6844,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6910,7 +6934,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7098,10 +7122,10 @@
         <v>1</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU33">
         <v>1.46</v>
@@ -7202,7 +7226,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7289,10 +7313,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7393,7 +7417,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7480,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT35">
         <v>0</v>
@@ -7584,7 +7608,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7674,7 +7698,7 @@
         <v>3</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -7775,7 +7799,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7862,7 +7886,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT37">
         <v>2.17</v>
@@ -8053,7 +8077,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT38">
         <v>0.5</v>
@@ -8157,7 +8181,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8348,7 +8372,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8539,7 +8563,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8629,7 +8653,7 @@
         <v>0.25</v>
       </c>
       <c r="AT41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -8820,7 +8844,7 @@
         <v>2.5</v>
       </c>
       <c r="AT42">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -8921,7 +8945,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9008,7 +9032,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT43">
         <v>0.25</v>
@@ -9199,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9390,10 +9414,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9494,7 +9518,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9584,7 +9608,7 @@
         <v>1</v>
       </c>
       <c r="AT46">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9685,7 +9709,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9772,10 +9796,10 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -9876,7 +9900,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -9963,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
         <v>0.33</v>
@@ -10067,7 +10091,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10154,10 +10178,10 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU49">
         <v>1.51</v>
@@ -10258,7 +10282,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10348,7 +10372,7 @@
         <v>1.57</v>
       </c>
       <c r="AT50">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10536,7 +10560,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>2.4</v>
@@ -10640,7 +10664,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -10727,7 +10751,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT52">
         <v>0.5</v>
@@ -11022,7 +11046,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11112,7 +11136,7 @@
         <v>3</v>
       </c>
       <c r="AT54">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11213,7 +11237,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11595,7 +11619,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11737,6 +11761,1152 @@
       </c>
       <c r="BK57">
         <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4933938</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45078.625</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58" t="s">
+        <v>75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>119</v>
+      </c>
+      <c r="P58" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q58">
+        <v>6</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>7</v>
+      </c>
+      <c r="T58">
+        <v>3.1</v>
+      </c>
+      <c r="U58">
+        <v>2.2</v>
+      </c>
+      <c r="V58">
+        <v>2.9</v>
+      </c>
+      <c r="W58">
+        <v>1.28</v>
+      </c>
+      <c r="X58">
+        <v>3.3</v>
+      </c>
+      <c r="Y58">
+        <v>2.1</v>
+      </c>
+      <c r="Z58">
+        <v>1.63</v>
+      </c>
+      <c r="AA58">
+        <v>4.6</v>
+      </c>
+      <c r="AB58">
+        <v>1.16</v>
+      </c>
+      <c r="AC58">
+        <v>2.3</v>
+      </c>
+      <c r="AD58">
+        <v>3.65</v>
+      </c>
+      <c r="AE58">
+        <v>2.75</v>
+      </c>
+      <c r="AF58">
+        <v>1.03</v>
+      </c>
+      <c r="AG58">
+        <v>12</v>
+      </c>
+      <c r="AH58">
+        <v>1.16</v>
+      </c>
+      <c r="AI58">
+        <v>4.75</v>
+      </c>
+      <c r="AJ58">
+        <v>1.53</v>
+      </c>
+      <c r="AK58">
+        <v>2.38</v>
+      </c>
+      <c r="AL58">
+        <v>1.42</v>
+      </c>
+      <c r="AM58">
+        <v>2.65</v>
+      </c>
+      <c r="AN58">
+        <v>1.51</v>
+      </c>
+      <c r="AO58">
+        <v>1.31</v>
+      </c>
+      <c r="AP58">
+        <v>1.43</v>
+      </c>
+      <c r="AQ58">
+        <v>1</v>
+      </c>
+      <c r="AR58">
+        <v>1.8</v>
+      </c>
+      <c r="AS58">
+        <v>1.5</v>
+      </c>
+      <c r="AT58">
+        <v>1.5</v>
+      </c>
+      <c r="AU58">
+        <v>1.31</v>
+      </c>
+      <c r="AV58">
+        <v>1.57</v>
+      </c>
+      <c r="AW58">
+        <v>2.88</v>
+      </c>
+      <c r="AX58">
+        <v>1.91</v>
+      </c>
+      <c r="AY58">
+        <v>8.5</v>
+      </c>
+      <c r="AZ58">
+        <v>2.1</v>
+      </c>
+      <c r="BA58">
+        <v>1.11</v>
+      </c>
+      <c r="BB58">
+        <v>1.21</v>
+      </c>
+      <c r="BC58">
+        <v>1.37</v>
+      </c>
+      <c r="BD58">
+        <v>1.64</v>
+      </c>
+      <c r="BE58">
+        <v>1.95</v>
+      </c>
+      <c r="BF58">
+        <v>15</v>
+      </c>
+      <c r="BG58">
+        <v>2</v>
+      </c>
+      <c r="BH58">
+        <v>9</v>
+      </c>
+      <c r="BI58">
+        <v>4</v>
+      </c>
+      <c r="BJ58">
+        <v>24</v>
+      </c>
+      <c r="BK58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4933937</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45078.67708333334</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>6</v>
+      </c>
+      <c r="O59" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59">
+        <v>8</v>
+      </c>
+      <c r="S59">
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <v>3.1</v>
+      </c>
+      <c r="U59">
+        <v>2.25</v>
+      </c>
+      <c r="V59">
+        <v>2.8</v>
+      </c>
+      <c r="W59">
+        <v>1.23</v>
+      </c>
+      <c r="X59">
+        <v>3.7</v>
+      </c>
+      <c r="Y59">
+        <v>1.95</v>
+      </c>
+      <c r="Z59">
+        <v>1.7</v>
+      </c>
+      <c r="AA59">
+        <v>3.95</v>
+      </c>
+      <c r="AB59">
+        <v>1.2</v>
+      </c>
+      <c r="AC59">
+        <v>2.5</v>
+      </c>
+      <c r="AD59">
+        <v>3.6</v>
+      </c>
+      <c r="AE59">
+        <v>2.3</v>
+      </c>
+      <c r="AF59">
+        <v>1.02</v>
+      </c>
+      <c r="AG59">
+        <v>16</v>
+      </c>
+      <c r="AH59">
+        <v>1.14</v>
+      </c>
+      <c r="AI59">
+        <v>5.25</v>
+      </c>
+      <c r="AJ59">
+        <v>1.4</v>
+      </c>
+      <c r="AK59">
+        <v>2.75</v>
+      </c>
+      <c r="AL59">
+        <v>1.41</v>
+      </c>
+      <c r="AM59">
+        <v>2.65</v>
+      </c>
+      <c r="AN59">
+        <v>1.55</v>
+      </c>
+      <c r="AO59">
+        <v>1.28</v>
+      </c>
+      <c r="AP59">
+        <v>1.42</v>
+      </c>
+      <c r="AQ59">
+        <v>1.5</v>
+      </c>
+      <c r="AR59">
+        <v>1.17</v>
+      </c>
+      <c r="AS59">
+        <v>1.43</v>
+      </c>
+      <c r="AT59">
+        <v>1.14</v>
+      </c>
+      <c r="AU59">
+        <v>1.32</v>
+      </c>
+      <c r="AV59">
+        <v>1.77</v>
+      </c>
+      <c r="AW59">
+        <v>3.09</v>
+      </c>
+      <c r="AX59">
+        <v>2.63</v>
+      </c>
+      <c r="AY59">
+        <v>9</v>
+      </c>
+      <c r="AZ59">
+        <v>1.64</v>
+      </c>
+      <c r="BA59">
+        <v>1.08</v>
+      </c>
+      <c r="BB59">
+        <v>1.16</v>
+      </c>
+      <c r="BC59">
+        <v>1.29</v>
+      </c>
+      <c r="BD59">
+        <v>1.49</v>
+      </c>
+      <c r="BE59">
+        <v>1.8</v>
+      </c>
+      <c r="BF59">
+        <v>5</v>
+      </c>
+      <c r="BG59">
+        <v>6</v>
+      </c>
+      <c r="BH59">
+        <v>7</v>
+      </c>
+      <c r="BI59">
+        <v>12</v>
+      </c>
+      <c r="BJ59">
+        <v>12</v>
+      </c>
+      <c r="BK59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4933939</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45079.625</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" t="s">
+        <v>65</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>121</v>
+      </c>
+      <c r="P60" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q60">
+        <v>5</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>9</v>
+      </c>
+      <c r="T60">
+        <v>3.05</v>
+      </c>
+      <c r="U60">
+        <v>2.24</v>
+      </c>
+      <c r="V60">
+        <v>3.14</v>
+      </c>
+      <c r="W60">
+        <v>1.25</v>
+      </c>
+      <c r="X60">
+        <v>3.75</v>
+      </c>
+      <c r="Y60">
+        <v>2.1</v>
+      </c>
+      <c r="Z60">
+        <v>1.67</v>
+      </c>
+      <c r="AA60">
+        <v>4.33</v>
+      </c>
+      <c r="AB60">
+        <v>1.2</v>
+      </c>
+      <c r="AC60">
+        <v>2.45</v>
+      </c>
+      <c r="AD60">
+        <v>3.5</v>
+      </c>
+      <c r="AE60">
+        <v>2.49</v>
+      </c>
+      <c r="AF60">
+        <v>1.02</v>
+      </c>
+      <c r="AG60">
+        <v>12</v>
+      </c>
+      <c r="AH60">
+        <v>1.14</v>
+      </c>
+      <c r="AI60">
+        <v>5</v>
+      </c>
+      <c r="AJ60">
+        <v>1.43</v>
+      </c>
+      <c r="AK60">
+        <v>2.62</v>
+      </c>
+      <c r="AL60">
+        <v>1.44</v>
+      </c>
+      <c r="AM60">
+        <v>2.65</v>
+      </c>
+      <c r="AN60">
+        <v>1.45</v>
+      </c>
+      <c r="AO60">
+        <v>1.27</v>
+      </c>
+      <c r="AP60">
+        <v>1.45</v>
+      </c>
+      <c r="AQ60">
+        <v>1.4</v>
+      </c>
+      <c r="AR60">
+        <v>1</v>
+      </c>
+      <c r="AS60">
+        <v>1.67</v>
+      </c>
+      <c r="AT60">
+        <v>0.75</v>
+      </c>
+      <c r="AU60">
+        <v>1.83</v>
+      </c>
+      <c r="AV60">
+        <v>1.27</v>
+      </c>
+      <c r="AW60">
+        <v>3.1</v>
+      </c>
+      <c r="AX60">
+        <v>1.91</v>
+      </c>
+      <c r="AY60">
+        <v>8.5</v>
+      </c>
+      <c r="AZ60">
+        <v>2.1</v>
+      </c>
+      <c r="BA60">
+        <v>1.1</v>
+      </c>
+      <c r="BB60">
+        <v>1.22</v>
+      </c>
+      <c r="BC60">
+        <v>1.43</v>
+      </c>
+      <c r="BD60">
+        <v>1.74</v>
+      </c>
+      <c r="BE60">
+        <v>2.17</v>
+      </c>
+      <c r="BF60">
+        <v>9</v>
+      </c>
+      <c r="BG60">
+        <v>4</v>
+      </c>
+      <c r="BH60">
+        <v>7</v>
+      </c>
+      <c r="BI60">
+        <v>3</v>
+      </c>
+      <c r="BJ60">
+        <v>16</v>
+      </c>
+      <c r="BK60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4933940</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45079.67708333334</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q61">
+        <v>7</v>
+      </c>
+      <c r="R61">
+        <v>4</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>2.51</v>
+      </c>
+      <c r="U61">
+        <v>2.45</v>
+      </c>
+      <c r="V61">
+        <v>3.5</v>
+      </c>
+      <c r="W61">
+        <v>1.25</v>
+      </c>
+      <c r="X61">
+        <v>3.75</v>
+      </c>
+      <c r="Y61">
+        <v>2.1</v>
+      </c>
+      <c r="Z61">
+        <v>1.67</v>
+      </c>
+      <c r="AA61">
+        <v>4.33</v>
+      </c>
+      <c r="AB61">
+        <v>1.2</v>
+      </c>
+      <c r="AC61">
+        <v>2.25</v>
+      </c>
+      <c r="AD61">
+        <v>3.5</v>
+      </c>
+      <c r="AE61">
+        <v>2.82</v>
+      </c>
+      <c r="AF61">
+        <v>1.02</v>
+      </c>
+      <c r="AG61">
+        <v>13</v>
+      </c>
+      <c r="AH61">
+        <v>1.14</v>
+      </c>
+      <c r="AI61">
+        <v>5</v>
+      </c>
+      <c r="AJ61">
+        <v>1.55</v>
+      </c>
+      <c r="AK61">
+        <v>2.29</v>
+      </c>
+      <c r="AL61">
+        <v>1.43</v>
+      </c>
+      <c r="AM61">
+        <v>2.63</v>
+      </c>
+      <c r="AN61">
+        <v>1.36</v>
+      </c>
+      <c r="AO61">
+        <v>1.24</v>
+      </c>
+      <c r="AP61">
+        <v>1.75</v>
+      </c>
+      <c r="AQ61">
+        <v>2.25</v>
+      </c>
+      <c r="AR61">
+        <v>3</v>
+      </c>
+      <c r="AS61">
+        <v>2</v>
+      </c>
+      <c r="AT61">
+        <v>2.6</v>
+      </c>
+      <c r="AU61">
+        <v>1.9</v>
+      </c>
+      <c r="AV61">
+        <v>2.08</v>
+      </c>
+      <c r="AW61">
+        <v>3.98</v>
+      </c>
+      <c r="AX61">
+        <v>1.75</v>
+      </c>
+      <c r="AY61">
+        <v>8.5</v>
+      </c>
+      <c r="AZ61">
+        <v>2.43</v>
+      </c>
+      <c r="BA61">
+        <v>1.09</v>
+      </c>
+      <c r="BB61">
+        <v>1.21</v>
+      </c>
+      <c r="BC61">
+        <v>1.4</v>
+      </c>
+      <c r="BD61">
+        <v>1.7</v>
+      </c>
+      <c r="BE61">
+        <v>2.12</v>
+      </c>
+      <c r="BF61">
+        <v>4</v>
+      </c>
+      <c r="BG61">
+        <v>4</v>
+      </c>
+      <c r="BH61">
+        <v>2</v>
+      </c>
+      <c r="BI61">
+        <v>3</v>
+      </c>
+      <c r="BJ61">
+        <v>6</v>
+      </c>
+      <c r="BK61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4933941</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45079.67708333334</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>123</v>
+      </c>
+      <c r="P62" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q62">
+        <v>14</v>
+      </c>
+      <c r="R62">
+        <v>3</v>
+      </c>
+      <c r="S62">
+        <v>17</v>
+      </c>
+      <c r="T62">
+        <v>2.21</v>
+      </c>
+      <c r="U62">
+        <v>2.36</v>
+      </c>
+      <c r="V62">
+        <v>4.5</v>
+      </c>
+      <c r="W62">
+        <v>1.29</v>
+      </c>
+      <c r="X62">
+        <v>3.5</v>
+      </c>
+      <c r="Y62">
+        <v>2.2</v>
+      </c>
+      <c r="Z62">
+        <v>1.62</v>
+      </c>
+      <c r="AA62">
+        <v>4.5</v>
+      </c>
+      <c r="AB62">
+        <v>1.17</v>
+      </c>
+      <c r="AC62">
+        <v>1.65</v>
+      </c>
+      <c r="AD62">
+        <v>4</v>
+      </c>
+      <c r="AE62">
+        <v>4.19</v>
+      </c>
+      <c r="AF62">
+        <v>1.02</v>
+      </c>
+      <c r="AG62">
+        <v>12</v>
+      </c>
+      <c r="AH62">
+        <v>1.17</v>
+      </c>
+      <c r="AI62">
+        <v>4.5</v>
+      </c>
+      <c r="AJ62">
+        <v>1.54</v>
+      </c>
+      <c r="AK62">
+        <v>2.32</v>
+      </c>
+      <c r="AL62">
+        <v>1.58</v>
+      </c>
+      <c r="AM62">
+        <v>2.29</v>
+      </c>
+      <c r="AN62">
+        <v>1.2</v>
+      </c>
+      <c r="AO62">
+        <v>1.24</v>
+      </c>
+      <c r="AP62">
+        <v>2.14</v>
+      </c>
+      <c r="AQ62">
+        <v>2</v>
+      </c>
+      <c r="AR62">
+        <v>0.8</v>
+      </c>
+      <c r="AS62">
+        <v>1.83</v>
+      </c>
+      <c r="AT62">
+        <v>0.83</v>
+      </c>
+      <c r="AU62">
+        <v>1.67</v>
+      </c>
+      <c r="AV62">
+        <v>1.64</v>
+      </c>
+      <c r="AW62">
+        <v>3.31</v>
+      </c>
+      <c r="AX62">
+        <v>1.59</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>2.77</v>
+      </c>
+      <c r="BA62">
+        <v>1.11</v>
+      </c>
+      <c r="BB62">
+        <v>1.15</v>
+      </c>
+      <c r="BC62">
+        <v>1.3</v>
+      </c>
+      <c r="BD62">
+        <v>1.62</v>
+      </c>
+      <c r="BE62">
+        <v>1.98</v>
+      </c>
+      <c r="BF62">
+        <v>5</v>
+      </c>
+      <c r="BG62">
+        <v>4</v>
+      </c>
+      <c r="BH62">
+        <v>13</v>
+      </c>
+      <c r="BI62">
+        <v>3</v>
+      </c>
+      <c r="BJ62">
+        <v>18</v>
+      </c>
+      <c r="BK62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4933942</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45079.67708333334</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" t="s">
+        <v>71</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>124</v>
+      </c>
+      <c r="P63" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q63">
+        <v>5</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>7</v>
+      </c>
+      <c r="T63">
+        <v>2.43</v>
+      </c>
+      <c r="U63">
+        <v>2.32</v>
+      </c>
+      <c r="V63">
+        <v>4</v>
+      </c>
+      <c r="W63">
+        <v>1.25</v>
+      </c>
+      <c r="X63">
+        <v>3.75</v>
+      </c>
+      <c r="Y63">
+        <v>2.1</v>
+      </c>
+      <c r="Z63">
+        <v>1.67</v>
+      </c>
+      <c r="AA63">
+        <v>4.5</v>
+      </c>
+      <c r="AB63">
+        <v>1.17</v>
+      </c>
+      <c r="AC63">
+        <v>1.82</v>
+      </c>
+      <c r="AD63">
+        <v>3.8</v>
+      </c>
+      <c r="AE63">
+        <v>3.54</v>
+      </c>
+      <c r="AF63">
+        <v>1.02</v>
+      </c>
+      <c r="AG63">
+        <v>13</v>
+      </c>
+      <c r="AH63">
+        <v>1.15</v>
+      </c>
+      <c r="AI63">
+        <v>4.75</v>
+      </c>
+      <c r="AJ63">
+        <v>1.45</v>
+      </c>
+      <c r="AK63">
+        <v>2.56</v>
+      </c>
+      <c r="AL63">
+        <v>1.44</v>
+      </c>
+      <c r="AM63">
+        <v>2.65</v>
+      </c>
+      <c r="AN63">
+        <v>1.29</v>
+      </c>
+      <c r="AO63">
+        <v>1.27</v>
+      </c>
+      <c r="AP63">
+        <v>1.84</v>
+      </c>
+      <c r="AQ63">
+        <v>1.4</v>
+      </c>
+      <c r="AR63">
+        <v>1</v>
+      </c>
+      <c r="AS63">
+        <v>1.67</v>
+      </c>
+      <c r="AT63">
+        <v>0.83</v>
+      </c>
+      <c r="AU63">
+        <v>1.6</v>
+      </c>
+      <c r="AV63">
+        <v>1.27</v>
+      </c>
+      <c r="AW63">
+        <v>2.87</v>
+      </c>
+      <c r="AX63">
+        <v>1.69</v>
+      </c>
+      <c r="AY63">
+        <v>8.5</v>
+      </c>
+      <c r="AZ63">
+        <v>2.53</v>
+      </c>
+      <c r="BA63">
+        <v>1.11</v>
+      </c>
+      <c r="BB63">
+        <v>1.19</v>
+      </c>
+      <c r="BC63">
+        <v>1.36</v>
+      </c>
+      <c r="BD63">
+        <v>1.69</v>
+      </c>
+      <c r="BE63">
+        <v>2.03</v>
+      </c>
+      <c r="BF63">
+        <v>10</v>
+      </c>
+      <c r="BG63">
+        <v>2</v>
+      </c>
+      <c r="BH63">
+        <v>5</v>
+      </c>
+      <c r="BI63">
+        <v>6</v>
+      </c>
+      <c r="BJ63">
+        <v>15</v>
+      </c>
+      <c r="BK63">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,15 @@
     <t>['45+1', '57', '83', '90']</t>
   </si>
   <si>
+    <t>['29', '62']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['35', '55']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -509,6 +518,12 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['14', '18']</t>
   </si>
 </sst>
 </file>
@@ -870,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1201,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT2">
         <v>1.14</v>
@@ -1305,7 +1320,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1496,7 +1511,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1586,7 +1601,7 @@
         <v>1.83</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1687,7 +1702,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1878,7 +1893,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2069,7 +2084,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2260,7 +2275,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2538,10 +2553,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU9">
         <v>1.32</v>
@@ -2729,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT10">
         <v>0</v>
@@ -2923,7 +2938,7 @@
         <v>2.5</v>
       </c>
       <c r="AT11">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3024,7 +3039,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3114,7 +3129,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU12">
         <v>1.81</v>
@@ -3215,7 +3230,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3406,7 +3421,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3496,7 +3511,7 @@
         <v>1.5</v>
       </c>
       <c r="AT14">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3684,7 +3699,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
         <v>0.83</v>
@@ -3788,7 +3803,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3979,7 +3994,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4361,7 +4376,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4552,7 +4567,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4830,7 +4845,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT21">
         <v>1.14</v>
@@ -5024,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5125,7 +5140,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5215,7 +5230,7 @@
         <v>0.25</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU23">
         <v>1.41</v>
@@ -5507,7 +5522,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5788,7 +5803,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU26">
         <v>1.25</v>
@@ -5889,7 +5904,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -5976,7 +5991,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT27">
         <v>0.83</v>
@@ -6080,7 +6095,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6271,7 +6286,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6462,7 +6477,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6552,7 +6567,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6653,7 +6668,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6844,7 +6859,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7226,7 +7241,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7417,7 +7432,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7608,7 +7623,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7695,7 +7710,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT36">
         <v>0.83</v>
@@ -7799,7 +7814,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7889,7 +7904,7 @@
         <v>1.43</v>
       </c>
       <c r="AT37">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8080,7 +8095,7 @@
         <v>1.67</v>
       </c>
       <c r="AT38">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU38">
         <v>1.79</v>
@@ -8181,7 +8196,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8268,7 +8283,7 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
         <v>2.4</v>
@@ -8372,7 +8387,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8462,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="AT40">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8563,7 +8578,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8945,7 +8960,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9518,7 +9533,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9709,7 +9724,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9900,7 +9915,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -9990,7 +10005,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10091,7 +10106,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10282,7 +10297,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10369,7 +10384,7 @@
         <v>3</v>
       </c>
       <c r="AS50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT50">
         <v>2.6</v>
@@ -10754,7 +10769,7 @@
         <v>1.43</v>
       </c>
       <c r="AT52">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU52">
         <v>1.23</v>
@@ -11046,7 +11061,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11133,7 +11148,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -11237,7 +11252,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11324,7 +11339,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
         <v>0.25</v>
@@ -11518,7 +11533,7 @@
         <v>0.25</v>
       </c>
       <c r="AT56">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11619,7 +11634,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12001,7 +12016,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12383,7 +12398,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12574,7 +12589,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12765,7 +12780,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12907,6 +12922,579 @@
       </c>
       <c r="BK63">
         <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4933943</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45087.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>65</v>
+      </c>
+      <c r="H64" t="s">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" t="s">
+        <v>125</v>
+      </c>
+      <c r="P64" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q64">
+        <v>5</v>
+      </c>
+      <c r="R64">
+        <v>9</v>
+      </c>
+      <c r="S64">
+        <v>14</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>2.61</v>
+      </c>
+      <c r="V64">
+        <v>4.48</v>
+      </c>
+      <c r="W64">
+        <v>1.25</v>
+      </c>
+      <c r="X64">
+        <v>3.75</v>
+      </c>
+      <c r="Y64">
+        <v>2.26</v>
+      </c>
+      <c r="Z64">
+        <v>1.65</v>
+      </c>
+      <c r="AA64">
+        <v>4.33</v>
+      </c>
+      <c r="AB64">
+        <v>1.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.71</v>
+      </c>
+      <c r="AD64">
+        <v>3.8</v>
+      </c>
+      <c r="AE64">
+        <v>4</v>
+      </c>
+      <c r="AF64">
+        <v>1.02</v>
+      </c>
+      <c r="AG64">
+        <v>13</v>
+      </c>
+      <c r="AH64">
+        <v>1.15</v>
+      </c>
+      <c r="AI64">
+        <v>4.75</v>
+      </c>
+      <c r="AJ64">
+        <v>1.44</v>
+      </c>
+      <c r="AK64">
+        <v>2.41</v>
+      </c>
+      <c r="AL64">
+        <v>1.53</v>
+      </c>
+      <c r="AM64">
+        <v>2.38</v>
+      </c>
+      <c r="AN64">
+        <v>1.19</v>
+      </c>
+      <c r="AO64">
+        <v>1.2</v>
+      </c>
+      <c r="AP64">
+        <v>1.88</v>
+      </c>
+      <c r="AQ64">
+        <v>1.57</v>
+      </c>
+      <c r="AR64">
+        <v>0.33</v>
+      </c>
+      <c r="AS64">
+        <v>1.75</v>
+      </c>
+      <c r="AT64">
+        <v>0.25</v>
+      </c>
+      <c r="AU64">
+        <v>1.5</v>
+      </c>
+      <c r="AV64">
+        <v>1.51</v>
+      </c>
+      <c r="AW64">
+        <v>3.01</v>
+      </c>
+      <c r="AX64">
+        <v>1.48</v>
+      </c>
+      <c r="AY64">
+        <v>7.5</v>
+      </c>
+      <c r="AZ64">
+        <v>3.55</v>
+      </c>
+      <c r="BA64">
+        <v>1.14</v>
+      </c>
+      <c r="BB64">
+        <v>1.26</v>
+      </c>
+      <c r="BC64">
+        <v>1.44</v>
+      </c>
+      <c r="BD64">
+        <v>1.85</v>
+      </c>
+      <c r="BE64">
+        <v>2.18</v>
+      </c>
+      <c r="BF64">
+        <v>9</v>
+      </c>
+      <c r="BG64">
+        <v>7</v>
+      </c>
+      <c r="BH64">
+        <v>5</v>
+      </c>
+      <c r="BI64">
+        <v>5</v>
+      </c>
+      <c r="BJ64">
+        <v>14</v>
+      </c>
+      <c r="BK64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4933944</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45087.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" t="s">
+        <v>75</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>126</v>
+      </c>
+      <c r="P65" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q65">
+        <v>8</v>
+      </c>
+      <c r="R65">
+        <v>6</v>
+      </c>
+      <c r="S65">
+        <v>14</v>
+      </c>
+      <c r="T65">
+        <v>2.37</v>
+      </c>
+      <c r="U65">
+        <v>2.29</v>
+      </c>
+      <c r="V65">
+        <v>3.85</v>
+      </c>
+      <c r="W65">
+        <v>1.3</v>
+      </c>
+      <c r="X65">
+        <v>3.2</v>
+      </c>
+      <c r="Y65">
+        <v>2.3</v>
+      </c>
+      <c r="Z65">
+        <v>1.55</v>
+      </c>
+      <c r="AA65">
+        <v>5.2</v>
+      </c>
+      <c r="AB65">
+        <v>1.13</v>
+      </c>
+      <c r="AC65">
+        <v>1.94</v>
+      </c>
+      <c r="AD65">
+        <v>3.6</v>
+      </c>
+      <c r="AE65">
+        <v>3.25</v>
+      </c>
+      <c r="AF65">
+        <v>1.03</v>
+      </c>
+      <c r="AG65">
+        <v>9</v>
+      </c>
+      <c r="AH65">
+        <v>1.15</v>
+      </c>
+      <c r="AI65">
+        <v>4.7</v>
+      </c>
+      <c r="AJ65">
+        <v>1.57</v>
+      </c>
+      <c r="AK65">
+        <v>2.26</v>
+      </c>
+      <c r="AL65">
+        <v>1.57</v>
+      </c>
+      <c r="AM65">
+        <v>2.25</v>
+      </c>
+      <c r="AN65">
+        <v>1.2</v>
+      </c>
+      <c r="AO65">
+        <v>1.27</v>
+      </c>
+      <c r="AP65">
+        <v>1.85</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>0.5</v>
+      </c>
+      <c r="AS65">
+        <v>1</v>
+      </c>
+      <c r="AT65">
+        <v>0.57</v>
+      </c>
+      <c r="AU65">
+        <v>1.59</v>
+      </c>
+      <c r="AV65">
+        <v>1.37</v>
+      </c>
+      <c r="AW65">
+        <v>2.96</v>
+      </c>
+      <c r="AX65">
+        <v>1.48</v>
+      </c>
+      <c r="AY65">
+        <v>8</v>
+      </c>
+      <c r="AZ65">
+        <v>3.45</v>
+      </c>
+      <c r="BA65">
+        <v>1.13</v>
+      </c>
+      <c r="BB65">
+        <v>1.23</v>
+      </c>
+      <c r="BC65">
+        <v>1.4</v>
+      </c>
+      <c r="BD65">
+        <v>1.72</v>
+      </c>
+      <c r="BE65">
+        <v>1.95</v>
+      </c>
+      <c r="BF65">
+        <v>3</v>
+      </c>
+      <c r="BG65">
+        <v>4</v>
+      </c>
+      <c r="BH65">
+        <v>3</v>
+      </c>
+      <c r="BI65">
+        <v>11</v>
+      </c>
+      <c r="BJ65">
+        <v>6</v>
+      </c>
+      <c r="BK65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4933945</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45087.5</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>127</v>
+      </c>
+      <c r="P66" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q66">
+        <v>6</v>
+      </c>
+      <c r="R66">
+        <v>5</v>
+      </c>
+      <c r="S66">
+        <v>11</v>
+      </c>
+      <c r="T66">
+        <v>3.94</v>
+      </c>
+      <c r="U66">
+        <v>2.52</v>
+      </c>
+      <c r="V66">
+        <v>2.5</v>
+      </c>
+      <c r="W66">
+        <v>1.28</v>
+      </c>
+      <c r="X66">
+        <v>3.3</v>
+      </c>
+      <c r="Y66">
+        <v>2.25</v>
+      </c>
+      <c r="Z66">
+        <v>1.55</v>
+      </c>
+      <c r="AA66">
+        <v>4.8</v>
+      </c>
+      <c r="AB66">
+        <v>1.15</v>
+      </c>
+      <c r="AC66">
+        <v>3.25</v>
+      </c>
+      <c r="AD66">
+        <v>3.7</v>
+      </c>
+      <c r="AE66">
+        <v>1.91</v>
+      </c>
+      <c r="AF66">
+        <v>1.02</v>
+      </c>
+      <c r="AG66">
+        <v>10</v>
+      </c>
+      <c r="AH66">
+        <v>1.13</v>
+      </c>
+      <c r="AI66">
+        <v>5</v>
+      </c>
+      <c r="AJ66">
+        <v>1.52</v>
+      </c>
+      <c r="AK66">
+        <v>2.4</v>
+      </c>
+      <c r="AL66">
+        <v>1.53</v>
+      </c>
+      <c r="AM66">
+        <v>2.38</v>
+      </c>
+      <c r="AN66">
+        <v>1.68</v>
+      </c>
+      <c r="AO66">
+        <v>1.22</v>
+      </c>
+      <c r="AP66">
+        <v>1.28</v>
+      </c>
+      <c r="AQ66">
+        <v>3</v>
+      </c>
+      <c r="AR66">
+        <v>2.17</v>
+      </c>
+      <c r="AS66">
+        <v>2.6</v>
+      </c>
+      <c r="AT66">
+        <v>2</v>
+      </c>
+      <c r="AU66">
+        <v>1.59</v>
+      </c>
+      <c r="AV66">
+        <v>1.43</v>
+      </c>
+      <c r="AW66">
+        <v>3.02</v>
+      </c>
+      <c r="AX66">
+        <v>2.68</v>
+      </c>
+      <c r="AY66">
+        <v>9.9</v>
+      </c>
+      <c r="AZ66">
+        <v>1.62</v>
+      </c>
+      <c r="BA66">
+        <v>1.15</v>
+      </c>
+      <c r="BB66">
+        <v>1.25</v>
+      </c>
+      <c r="BC66">
+        <v>1.45</v>
+      </c>
+      <c r="BD66">
+        <v>1.78</v>
+      </c>
+      <c r="BE66">
+        <v>2.28</v>
+      </c>
+      <c r="BF66">
+        <v>12</v>
+      </c>
+      <c r="BG66">
+        <v>8</v>
+      </c>
+      <c r="BH66">
+        <v>9</v>
+      </c>
+      <c r="BI66">
+        <v>5</v>
+      </c>
+      <c r="BJ66">
+        <v>21</v>
+      </c>
+      <c r="BK66">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="174">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -400,6 +400,12 @@
     <t>['35', '55']</t>
   </si>
   <si>
+    <t>['21', '28', '34']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -524,6 +530,12 @@
   </si>
   <si>
     <t>['14', '18']</t>
+  </si>
+  <si>
+    <t>['20', '52', '59', '60', '72']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK66"/>
+  <dimension ref="A1:BK69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1141,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1320,7 +1332,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1511,7 +1523,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1702,7 +1714,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1893,7 +1905,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2084,7 +2096,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2275,7 +2287,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2362,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT8">
         <v>1.14</v>
@@ -2747,7 +2759,7 @@
         <v>2.6</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2935,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT11">
         <v>0.25</v>
@@ -3039,7 +3051,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3230,7 +3242,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3317,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT13">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3421,7 +3433,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3803,7 +3815,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3893,7 +3905,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -3994,7 +4006,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4272,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT18">
         <v>1.14</v>
@@ -4376,7 +4388,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4567,7 +4579,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4657,7 +4669,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -5036,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT22">
         <v>0.25</v>
@@ -5140,7 +5152,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5227,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT23">
         <v>0.57</v>
@@ -5418,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT24">
         <v>0.75</v>
@@ -5522,7 +5534,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5612,7 +5624,7 @@
         <v>1.83</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -5904,7 +5916,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6095,7 +6107,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6286,7 +6298,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6376,7 +6388,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6477,7 +6489,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6668,7 +6680,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6755,7 +6767,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT31">
         <v>0.83</v>
@@ -6859,7 +6871,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6946,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT32">
         <v>0.75</v>
@@ -7241,7 +7253,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7432,7 +7444,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7522,7 +7534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -7623,7 +7635,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7814,7 +7826,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8196,7 +8208,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8286,7 +8298,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8387,7 +8399,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8578,7 +8590,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8665,7 +8677,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -8856,7 +8868,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT42">
         <v>0.83</v>
@@ -8960,7 +8972,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9050,7 +9062,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9533,7 +9545,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9620,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AT46">
         <v>2.6</v>
@@ -9724,7 +9736,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9915,7 +9927,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10106,7 +10118,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10297,7 +10309,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10578,7 +10590,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -10960,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="AT53">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -11061,7 +11073,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11252,7 +11264,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11342,7 +11354,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11530,7 +11542,7 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AT56">
         <v>2</v>
@@ -11634,7 +11646,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11721,10 +11733,10 @@
         <v>2.25</v>
       </c>
       <c r="AS57">
+        <v>2.57</v>
+      </c>
+      <c r="AT57">
         <v>2.5</v>
-      </c>
-      <c r="AT57">
-        <v>2.4</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -12016,7 +12028,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12398,7 +12410,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12589,7 +12601,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12780,7 +12792,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13162,7 +13174,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13353,16 +13365,16 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R66">
         <v>5</v>
       </c>
       <c r="S66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T66">
         <v>3.94</v>
@@ -13495,6 +13507,579 @@
       </c>
       <c r="BK66">
         <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4933946</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45088.58333333334</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>5</v>
+      </c>
+      <c r="O67" t="s">
+        <v>80</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>7</v>
+      </c>
+      <c r="R67">
+        <v>3</v>
+      </c>
+      <c r="S67">
+        <v>10</v>
+      </c>
+      <c r="T67">
+        <v>4.33</v>
+      </c>
+      <c r="U67">
+        <v>2.4</v>
+      </c>
+      <c r="V67">
+        <v>2.2</v>
+      </c>
+      <c r="W67">
+        <v>1.25</v>
+      </c>
+      <c r="X67">
+        <v>3.75</v>
+      </c>
+      <c r="Y67">
+        <v>2.2</v>
+      </c>
+      <c r="Z67">
+        <v>1.62</v>
+      </c>
+      <c r="AA67">
+        <v>4.5</v>
+      </c>
+      <c r="AB67">
+        <v>1.17</v>
+      </c>
+      <c r="AC67">
+        <v>4.1</v>
+      </c>
+      <c r="AD67">
+        <v>4</v>
+      </c>
+      <c r="AE67">
+        <v>1.66</v>
+      </c>
+      <c r="AF67">
+        <v>1.01</v>
+      </c>
+      <c r="AG67">
+        <v>12</v>
+      </c>
+      <c r="AH67">
+        <v>1.13</v>
+      </c>
+      <c r="AI67">
+        <v>5.4</v>
+      </c>
+      <c r="AJ67">
+        <v>1.48</v>
+      </c>
+      <c r="AK67">
+        <v>2.47</v>
+      </c>
+      <c r="AL67">
+        <v>1.57</v>
+      </c>
+      <c r="AM67">
+        <v>2.25</v>
+      </c>
+      <c r="AN67">
+        <v>2.15</v>
+      </c>
+      <c r="AO67">
+        <v>1.22</v>
+      </c>
+      <c r="AP67">
+        <v>1.18</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>2.4</v>
+      </c>
+      <c r="AS67">
+        <v>0.8</v>
+      </c>
+      <c r="AT67">
+        <v>2.5</v>
+      </c>
+      <c r="AU67">
+        <v>1.29</v>
+      </c>
+      <c r="AV67">
+        <v>1.55</v>
+      </c>
+      <c r="AW67">
+        <v>2.84</v>
+      </c>
+      <c r="AX67">
+        <v>2.88</v>
+      </c>
+      <c r="AY67">
+        <v>10.5</v>
+      </c>
+      <c r="AZ67">
+        <v>1.54</v>
+      </c>
+      <c r="BA67">
+        <v>1.12</v>
+      </c>
+      <c r="BB67">
+        <v>1.22</v>
+      </c>
+      <c r="BC67">
+        <v>1.4</v>
+      </c>
+      <c r="BD67">
+        <v>1.68</v>
+      </c>
+      <c r="BE67">
+        <v>2.14</v>
+      </c>
+      <c r="BF67">
+        <v>4</v>
+      </c>
+      <c r="BG67">
+        <v>9</v>
+      </c>
+      <c r="BH67">
+        <v>8</v>
+      </c>
+      <c r="BI67">
+        <v>8</v>
+      </c>
+      <c r="BJ67">
+        <v>12</v>
+      </c>
+      <c r="BK67">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4933947</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45088.67708333334</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>4</v>
+      </c>
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>128</v>
+      </c>
+      <c r="P68" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q68">
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <v>-1</v>
+      </c>
+      <c r="S68">
+        <v>-1</v>
+      </c>
+      <c r="T68">
+        <v>1.73</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>5.5</v>
+      </c>
+      <c r="W68">
+        <v>1.2</v>
+      </c>
+      <c r="X68">
+        <v>4.33</v>
+      </c>
+      <c r="Y68">
+        <v>1.91</v>
+      </c>
+      <c r="Z68">
+        <v>1.8</v>
+      </c>
+      <c r="AA68">
+        <v>4</v>
+      </c>
+      <c r="AB68">
+        <v>1.22</v>
+      </c>
+      <c r="AC68">
+        <v>1.3</v>
+      </c>
+      <c r="AD68">
+        <v>5.75</v>
+      </c>
+      <c r="AE68">
+        <v>7.75</v>
+      </c>
+      <c r="AF68">
+        <v>1.01</v>
+      </c>
+      <c r="AG68">
+        <v>13</v>
+      </c>
+      <c r="AH68">
+        <v>1.08</v>
+      </c>
+      <c r="AI68">
+        <v>7.5</v>
+      </c>
+      <c r="AJ68">
+        <v>1.36</v>
+      </c>
+      <c r="AK68">
+        <v>2.9</v>
+      </c>
+      <c r="AL68">
+        <v>1.62</v>
+      </c>
+      <c r="AM68">
+        <v>2.2</v>
+      </c>
+      <c r="AN68">
+        <v>1.06</v>
+      </c>
+      <c r="AO68">
+        <v>1.11</v>
+      </c>
+      <c r="AP68">
+        <v>3.15</v>
+      </c>
+      <c r="AQ68">
+        <v>2.5</v>
+      </c>
+      <c r="AR68">
+        <v>0.25</v>
+      </c>
+      <c r="AS68">
+        <v>2.57</v>
+      </c>
+      <c r="AT68">
+        <v>0.2</v>
+      </c>
+      <c r="AU68">
+        <v>1.69</v>
+      </c>
+      <c r="AV68">
+        <v>1.59</v>
+      </c>
+      <c r="AW68">
+        <v>3.28</v>
+      </c>
+      <c r="AX68">
+        <v>1.29</v>
+      </c>
+      <c r="AY68">
+        <v>11.75</v>
+      </c>
+      <c r="AZ68">
+        <v>4.3</v>
+      </c>
+      <c r="BA68">
+        <v>1.11</v>
+      </c>
+      <c r="BB68">
+        <v>1.2</v>
+      </c>
+      <c r="BC68">
+        <v>1.33</v>
+      </c>
+      <c r="BD68">
+        <v>1.55</v>
+      </c>
+      <c r="BE68">
+        <v>1.87</v>
+      </c>
+      <c r="BF68">
+        <v>-1</v>
+      </c>
+      <c r="BG68">
+        <v>-1</v>
+      </c>
+      <c r="BH68">
+        <v>-1</v>
+      </c>
+      <c r="BI68">
+        <v>-1</v>
+      </c>
+      <c r="BJ68">
+        <v>-1</v>
+      </c>
+      <c r="BK68">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4933948</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45088.67708333334</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>71</v>
+      </c>
+      <c r="H69" t="s">
+        <v>68</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q69">
+        <v>-1</v>
+      </c>
+      <c r="R69">
+        <v>-1</v>
+      </c>
+      <c r="S69">
+        <v>-1</v>
+      </c>
+      <c r="T69">
+        <v>3.6</v>
+      </c>
+      <c r="U69">
+        <v>2.38</v>
+      </c>
+      <c r="V69">
+        <v>2.4</v>
+      </c>
+      <c r="W69">
+        <v>1.29</v>
+      </c>
+      <c r="X69">
+        <v>3.5</v>
+      </c>
+      <c r="Y69">
+        <v>2.25</v>
+      </c>
+      <c r="Z69">
+        <v>1.57</v>
+      </c>
+      <c r="AA69">
+        <v>5</v>
+      </c>
+      <c r="AB69">
+        <v>1.14</v>
+      </c>
+      <c r="AC69">
+        <v>3.85</v>
+      </c>
+      <c r="AD69">
+        <v>3.8</v>
+      </c>
+      <c r="AE69">
+        <v>1.8</v>
+      </c>
+      <c r="AF69">
+        <v>1.02</v>
+      </c>
+      <c r="AG69">
+        <v>15</v>
+      </c>
+      <c r="AH69">
+        <v>1.16</v>
+      </c>
+      <c r="AI69">
+        <v>4.9</v>
+      </c>
+      <c r="AJ69">
+        <v>1.57</v>
+      </c>
+      <c r="AK69">
+        <v>2.25</v>
+      </c>
+      <c r="AL69">
+        <v>1.53</v>
+      </c>
+      <c r="AM69">
+        <v>2.38</v>
+      </c>
+      <c r="AN69">
+        <v>1.78</v>
+      </c>
+      <c r="AO69">
+        <v>1.24</v>
+      </c>
+      <c r="AP69">
+        <v>1.26</v>
+      </c>
+      <c r="AQ69">
+        <v>0.25</v>
+      </c>
+      <c r="AR69">
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <v>0.4</v>
+      </c>
+      <c r="AT69">
+        <v>0.2</v>
+      </c>
+      <c r="AU69">
+        <v>1.13</v>
+      </c>
+      <c r="AV69">
+        <v>1.59</v>
+      </c>
+      <c r="AW69">
+        <v>2.72</v>
+      </c>
+      <c r="AX69">
+        <v>3.25</v>
+      </c>
+      <c r="AY69">
+        <v>8.4</v>
+      </c>
+      <c r="AZ69">
+        <v>1.51</v>
+      </c>
+      <c r="BA69">
+        <v>1.11</v>
+      </c>
+      <c r="BB69">
+        <v>1.2</v>
+      </c>
+      <c r="BC69">
+        <v>1.33</v>
+      </c>
+      <c r="BD69">
+        <v>1.61</v>
+      </c>
+      <c r="BE69">
+        <v>1.87</v>
+      </c>
+      <c r="BF69">
+        <v>-1</v>
+      </c>
+      <c r="BG69">
+        <v>-1</v>
+      </c>
+      <c r="BH69">
+        <v>-1</v>
+      </c>
+      <c r="BI69">
+        <v>-1</v>
+      </c>
+      <c r="BJ69">
+        <v>-1</v>
+      </c>
+      <c r="BK69">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -13750,13 +13750,13 @@
         <v>132</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R68">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S68">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="T68">
         <v>1.73</v>
@@ -13873,22 +13873,22 @@
         <v>1.87</v>
       </c>
       <c r="BF68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG68">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ68">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK68">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:63">
@@ -13941,13 +13941,13 @@
         <v>173</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R69">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="S69">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T69">
         <v>3.6</v>
@@ -14064,22 +14064,22 @@
         <v>1.87</v>
       </c>
       <c r="BF69">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BG69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH69">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BI69">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BJ69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK69">
-        <v>-1</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="181">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,21 @@
     <t>['54']</t>
   </si>
   <si>
+    <t>['5', '15', '54', '89']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['26', '38', '47', '62', '90']</t>
+  </si>
+  <si>
+    <t>['42', '78']</t>
+  </si>
+  <si>
+    <t>['29', '36']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -536,6 +551,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['35', '59']</t>
+  </si>
+  <si>
+    <t>['10', '55', '57']</t>
   </si>
 </sst>
 </file>
@@ -897,7 +918,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK69"/>
+  <dimension ref="A1:BK75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1162,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1332,7 +1353,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1523,7 +1544,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1714,7 +1735,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1905,7 +1926,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2096,7 +2117,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2287,7 +2308,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2374,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT8">
         <v>1.14</v>
@@ -2756,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT10">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2947,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3051,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3141,7 +3162,7 @@
         <v>1.83</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU12">
         <v>1.81</v>
@@ -3242,7 +3263,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3329,10 +3350,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT13">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3433,7 +3454,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3520,10 +3541,10 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3815,7 +3836,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3905,7 +3926,7 @@
         <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -4006,7 +4027,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4284,7 +4305,7 @@
         <v>2</v>
       </c>
       <c r="AS18">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT18">
         <v>1.14</v>
@@ -4388,7 +4409,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4579,7 +4600,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4669,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="AT20">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -4857,7 +4878,7 @@
         <v>1.33</v>
       </c>
       <c r="AS21">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT21">
         <v>1.14</v>
@@ -5048,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5152,7 +5173,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5239,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT23">
         <v>0.57</v>
@@ -5430,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5534,7 +5555,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5624,7 +5645,7 @@
         <v>1.83</v>
       </c>
       <c r="AT25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU25">
         <v>1.43</v>
@@ -5916,7 +5937,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6107,7 +6128,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6194,7 +6215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT28">
         <v>1.5</v>
@@ -6298,7 +6319,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6388,7 +6409,7 @@
         <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU29">
         <v>1.68</v>
@@ -6489,7 +6510,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6579,7 +6600,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU30">
         <v>1.83</v>
@@ -6680,7 +6701,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6767,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT31">
         <v>0.83</v>
@@ -6871,7 +6892,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6958,10 +6979,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7253,7 +7274,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7340,7 +7361,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT34">
         <v>2.6</v>
@@ -7444,7 +7465,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7534,7 +7555,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU35">
         <v>1.36</v>
@@ -7635,7 +7656,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7722,7 +7743,7 @@
         <v>1.33</v>
       </c>
       <c r="AS36">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT36">
         <v>0.83</v>
@@ -7826,7 +7847,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7916,7 +7937,7 @@
         <v>1.43</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU37">
         <v>1.34</v>
@@ -8208,7 +8229,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8298,7 +8319,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU39">
         <v>1.52</v>
@@ -8399,7 +8420,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8486,10 +8507,10 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU40">
         <v>1.67</v>
@@ -8590,7 +8611,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8677,7 +8698,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT41">
         <v>1.5</v>
@@ -8868,7 +8889,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT42">
         <v>0.83</v>
@@ -8972,7 +8993,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9062,7 +9083,7 @@
         <v>1.43</v>
       </c>
       <c r="AT43">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9253,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9545,7 +9566,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9632,7 +9653,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT46">
         <v>2.6</v>
@@ -9736,7 +9757,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9823,7 +9844,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT47">
         <v>0.83</v>
@@ -9927,7 +9948,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10017,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT48">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10118,7 +10139,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10309,7 +10330,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10590,7 +10611,7 @@
         <v>2</v>
       </c>
       <c r="AT51">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU51">
         <v>1.99</v>
@@ -10969,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT53">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU53">
         <v>1.17</v>
@@ -11073,7 +11094,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11160,7 +11181,7 @@
         <v>2.25</v>
       </c>
       <c r="AS54">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT54">
         <v>1.5</v>
@@ -11264,7 +11285,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11354,7 +11375,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11542,10 +11563,10 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT56">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU56">
         <v>1.26</v>
@@ -11646,7 +11667,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11733,10 +11754,10 @@
         <v>2.25</v>
       </c>
       <c r="AS57">
+        <v>2.63</v>
+      </c>
+      <c r="AT57">
         <v>2.57</v>
-      </c>
-      <c r="AT57">
-        <v>2.5</v>
       </c>
       <c r="AU57">
         <v>1.73</v>
@@ -11924,7 +11945,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AT58">
         <v>1.5</v>
@@ -12028,7 +12049,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12309,7 +12330,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12410,7 +12431,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12601,7 +12622,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12792,7 +12813,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13073,7 +13094,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13174,7 +13195,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13261,7 +13282,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AT65">
         <v>0.57</v>
@@ -13365,7 +13386,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13452,10 +13473,10 @@
         <v>2.17</v>
       </c>
       <c r="AS66">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AT66">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU66">
         <v>1.59</v>
@@ -13556,7 +13577,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13643,10 +13664,10 @@
         <v>2.4</v>
       </c>
       <c r="AS67">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AT67">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AU67">
         <v>1.29</v>
@@ -13747,7 +13768,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13834,10 +13855,10 @@
         <v>0.25</v>
       </c>
       <c r="AS68">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT68">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -13938,7 +13959,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14025,10 +14046,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AT69">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AU69">
         <v>1.13</v>
@@ -14079,6 +14100,1152 @@
         <v>5</v>
       </c>
       <c r="BK69">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4933949</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45100.67708333334</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>4</v>
+      </c>
+      <c r="O70" t="s">
+        <v>130</v>
+      </c>
+      <c r="P70" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q70">
+        <v>7</v>
+      </c>
+      <c r="R70">
+        <v>5</v>
+      </c>
+      <c r="S70">
+        <v>12</v>
+      </c>
+      <c r="T70">
+        <v>2.25</v>
+      </c>
+      <c r="U70">
+        <v>2.4</v>
+      </c>
+      <c r="V70">
+        <v>3.7</v>
+      </c>
+      <c r="W70">
+        <v>1.29</v>
+      </c>
+      <c r="X70">
+        <v>3.5</v>
+      </c>
+      <c r="Y70">
+        <v>2.25</v>
+      </c>
+      <c r="Z70">
+        <v>1.6</v>
+      </c>
+      <c r="AA70">
+        <v>4.75</v>
+      </c>
+      <c r="AB70">
+        <v>1.15</v>
+      </c>
+      <c r="AC70">
+        <v>1.8</v>
+      </c>
+      <c r="AD70">
+        <v>4</v>
+      </c>
+      <c r="AE70">
+        <v>3.5</v>
+      </c>
+      <c r="AF70">
+        <v>1.03</v>
+      </c>
+      <c r="AG70">
+        <v>11</v>
+      </c>
+      <c r="AH70">
+        <v>1.17</v>
+      </c>
+      <c r="AI70">
+        <v>4.5</v>
+      </c>
+      <c r="AJ70">
+        <v>1.52</v>
+      </c>
+      <c r="AK70">
+        <v>2.45</v>
+      </c>
+      <c r="AL70">
+        <v>1.53</v>
+      </c>
+      <c r="AM70">
+        <v>2.38</v>
+      </c>
+      <c r="AN70">
+        <v>1.29</v>
+      </c>
+      <c r="AO70">
+        <v>1.25</v>
+      </c>
+      <c r="AP70">
+        <v>1.85</v>
+      </c>
+      <c r="AQ70">
+        <v>2.6</v>
+      </c>
+      <c r="AR70">
+        <v>0.2</v>
+      </c>
+      <c r="AS70">
+        <v>2.67</v>
+      </c>
+      <c r="AT70">
+        <v>0.17</v>
+      </c>
+      <c r="AU70">
+        <v>1.78</v>
+      </c>
+      <c r="AV70">
+        <v>1.49</v>
+      </c>
+      <c r="AW70">
+        <v>3.27</v>
+      </c>
+      <c r="AX70">
+        <v>1.55</v>
+      </c>
+      <c r="AY70">
+        <v>9</v>
+      </c>
+      <c r="AZ70">
+        <v>2.9</v>
+      </c>
+      <c r="BA70">
+        <v>1.09</v>
+      </c>
+      <c r="BB70">
+        <v>1.21</v>
+      </c>
+      <c r="BC70">
+        <v>1.41</v>
+      </c>
+      <c r="BD70">
+        <v>1.71</v>
+      </c>
+      <c r="BE70">
+        <v>2.12</v>
+      </c>
+      <c r="BF70">
+        <v>7</v>
+      </c>
+      <c r="BG70">
+        <v>2</v>
+      </c>
+      <c r="BH70">
+        <v>6</v>
+      </c>
+      <c r="BI70">
+        <v>2</v>
+      </c>
+      <c r="BJ70">
+        <v>13</v>
+      </c>
+      <c r="BK70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:63">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>4933950</v>
+      </c>
+      <c r="C71" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" t="s">
+        <v>64</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45100.67708333334</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>131</v>
+      </c>
+      <c r="P71" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q71">
+        <v>9</v>
+      </c>
+      <c r="R71">
+        <v>4</v>
+      </c>
+      <c r="S71">
+        <v>13</v>
+      </c>
+      <c r="T71">
+        <v>2.95</v>
+      </c>
+      <c r="U71">
+        <v>2.25</v>
+      </c>
+      <c r="V71">
+        <v>2.95</v>
+      </c>
+      <c r="W71">
+        <v>1.27</v>
+      </c>
+      <c r="X71">
+        <v>3.56</v>
+      </c>
+      <c r="Y71">
+        <v>2.25</v>
+      </c>
+      <c r="Z71">
+        <v>1.57</v>
+      </c>
+      <c r="AA71">
+        <v>5.1</v>
+      </c>
+      <c r="AB71">
+        <v>1.15</v>
+      </c>
+      <c r="AC71">
+        <v>2.6</v>
+      </c>
+      <c r="AD71">
+        <v>3.4</v>
+      </c>
+      <c r="AE71">
+        <v>2.5</v>
+      </c>
+      <c r="AF71">
+        <v>1.03</v>
+      </c>
+      <c r="AG71">
+        <v>11</v>
+      </c>
+      <c r="AH71">
+        <v>1.14</v>
+      </c>
+      <c r="AI71">
+        <v>4.65</v>
+      </c>
+      <c r="AJ71">
+        <v>1.62</v>
+      </c>
+      <c r="AK71">
+        <v>2.18</v>
+      </c>
+      <c r="AL71">
+        <v>1.45</v>
+      </c>
+      <c r="AM71">
+        <v>2.6</v>
+      </c>
+      <c r="AN71">
+        <v>1.44</v>
+      </c>
+      <c r="AO71">
+        <v>1.22</v>
+      </c>
+      <c r="AP71">
+        <v>1.42</v>
+      </c>
+      <c r="AQ71">
+        <v>0.4</v>
+      </c>
+      <c r="AR71">
+        <v>0.25</v>
+      </c>
+      <c r="AS71">
+        <v>0.5</v>
+      </c>
+      <c r="AT71">
+        <v>0.4</v>
+      </c>
+      <c r="AU71">
+        <v>1.05</v>
+      </c>
+      <c r="AV71">
+        <v>1.54</v>
+      </c>
+      <c r="AW71">
+        <v>2.59</v>
+      </c>
+      <c r="AX71">
+        <v>1.91</v>
+      </c>
+      <c r="AY71">
+        <v>8.5</v>
+      </c>
+      <c r="AZ71">
+        <v>2.1</v>
+      </c>
+      <c r="BA71">
+        <v>1.09</v>
+      </c>
+      <c r="BB71">
+        <v>1.15</v>
+      </c>
+      <c r="BC71">
+        <v>1.3</v>
+      </c>
+      <c r="BD71">
+        <v>1.53</v>
+      </c>
+      <c r="BE71">
+        <v>2</v>
+      </c>
+      <c r="BF71">
+        <v>6</v>
+      </c>
+      <c r="BG71">
+        <v>5</v>
+      </c>
+      <c r="BH71">
+        <v>9</v>
+      </c>
+      <c r="BI71">
+        <v>4</v>
+      </c>
+      <c r="BJ71">
+        <v>15</v>
+      </c>
+      <c r="BK71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:63">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>4933951</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" t="s">
+        <v>64</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45100.67708333334</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>7</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>12</v>
+      </c>
+      <c r="S72">
+        <v>13</v>
+      </c>
+      <c r="T72">
+        <v>5</v>
+      </c>
+      <c r="U72">
+        <v>2.45</v>
+      </c>
+      <c r="V72">
+        <v>1.95</v>
+      </c>
+      <c r="W72">
+        <v>1.3</v>
+      </c>
+      <c r="X72">
+        <v>3.4</v>
+      </c>
+      <c r="Y72">
+        <v>2.3</v>
+      </c>
+      <c r="Z72">
+        <v>1.55</v>
+      </c>
+      <c r="AA72">
+        <v>5</v>
+      </c>
+      <c r="AB72">
+        <v>1.14</v>
+      </c>
+      <c r="AC72">
+        <v>5.5</v>
+      </c>
+      <c r="AD72">
+        <v>4.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.45</v>
+      </c>
+      <c r="AF72">
+        <v>1.03</v>
+      </c>
+      <c r="AG72">
+        <v>11</v>
+      </c>
+      <c r="AH72">
+        <v>1.18</v>
+      </c>
+      <c r="AI72">
+        <v>4.5</v>
+      </c>
+      <c r="AJ72">
+        <v>1.54</v>
+      </c>
+      <c r="AK72">
+        <v>2.38</v>
+      </c>
+      <c r="AL72">
+        <v>1.68</v>
+      </c>
+      <c r="AM72">
+        <v>2.1</v>
+      </c>
+      <c r="AN72">
+        <v>2.55</v>
+      </c>
+      <c r="AO72">
+        <v>1.15</v>
+      </c>
+      <c r="AP72">
+        <v>1.09</v>
+      </c>
+      <c r="AQ72">
+        <v>0.8</v>
+      </c>
+      <c r="AR72">
+        <v>2</v>
+      </c>
+      <c r="AS72">
+        <v>1.17</v>
+      </c>
+      <c r="AT72">
+        <v>1.75</v>
+      </c>
+      <c r="AU72">
+        <v>1.29</v>
+      </c>
+      <c r="AV72">
+        <v>1.49</v>
+      </c>
+      <c r="AW72">
+        <v>2.78</v>
+      </c>
+      <c r="AX72">
+        <v>3.48</v>
+      </c>
+      <c r="AY72">
+        <v>9.5</v>
+      </c>
+      <c r="AZ72">
+        <v>1.41</v>
+      </c>
+      <c r="BA72">
+        <v>1.09</v>
+      </c>
+      <c r="BB72">
+        <v>1.21</v>
+      </c>
+      <c r="BC72">
+        <v>1.4</v>
+      </c>
+      <c r="BD72">
+        <v>1.7</v>
+      </c>
+      <c r="BE72">
+        <v>2.09</v>
+      </c>
+      <c r="BF72">
+        <v>8</v>
+      </c>
+      <c r="BG72">
+        <v>4</v>
+      </c>
+      <c r="BH72">
+        <v>3</v>
+      </c>
+      <c r="BI72">
+        <v>6</v>
+      </c>
+      <c r="BJ72">
+        <v>11</v>
+      </c>
+      <c r="BK72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:63">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>4933952</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+      <c r="D73" t="s">
+        <v>64</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45101.45833333334</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q73">
+        <v>13</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>14</v>
+      </c>
+      <c r="T73">
+        <v>4.03</v>
+      </c>
+      <c r="U73">
+        <v>2.46</v>
+      </c>
+      <c r="V73">
+        <v>2.32</v>
+      </c>
+      <c r="W73">
+        <v>1.25</v>
+      </c>
+      <c r="X73">
+        <v>3.72</v>
+      </c>
+      <c r="Y73">
+        <v>2.17</v>
+      </c>
+      <c r="Z73">
+        <v>1.65</v>
+      </c>
+      <c r="AA73">
+        <v>4.75</v>
+      </c>
+      <c r="AB73">
+        <v>1.17</v>
+      </c>
+      <c r="AC73">
+        <v>3.55</v>
+      </c>
+      <c r="AD73">
+        <v>3.85</v>
+      </c>
+      <c r="AE73">
+        <v>1.86</v>
+      </c>
+      <c r="AF73">
+        <v>1.02</v>
+      </c>
+      <c r="AG73">
+        <v>13</v>
+      </c>
+      <c r="AH73">
+        <v>1.12</v>
+      </c>
+      <c r="AI73">
+        <v>5.1</v>
+      </c>
+      <c r="AJ73">
+        <v>1.43</v>
+      </c>
+      <c r="AK73">
+        <v>2.45</v>
+      </c>
+      <c r="AL73">
+        <v>1.48</v>
+      </c>
+      <c r="AM73">
+        <v>2.54</v>
+      </c>
+      <c r="AN73">
+        <v>1.98</v>
+      </c>
+      <c r="AO73">
+        <v>1.24</v>
+      </c>
+      <c r="AP73">
+        <v>1.26</v>
+      </c>
+      <c r="AQ73">
+        <v>1.5</v>
+      </c>
+      <c r="AR73">
+        <v>2.5</v>
+      </c>
+      <c r="AS73">
+        <v>1.2</v>
+      </c>
+      <c r="AT73">
+        <v>2.57</v>
+      </c>
+      <c r="AU73">
+        <v>1.72</v>
+      </c>
+      <c r="AV73">
+        <v>1.64</v>
+      </c>
+      <c r="AW73">
+        <v>3.36</v>
+      </c>
+      <c r="AX73">
+        <v>2.63</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>1.64</v>
+      </c>
+      <c r="BA73">
+        <v>0</v>
+      </c>
+      <c r="BB73">
+        <v>1.14</v>
+      </c>
+      <c r="BC73">
+        <v>1.28</v>
+      </c>
+      <c r="BD73">
+        <v>1.57</v>
+      </c>
+      <c r="BE73">
+        <v>2</v>
+      </c>
+      <c r="BF73">
+        <v>4</v>
+      </c>
+      <c r="BG73">
+        <v>7</v>
+      </c>
+      <c r="BH73">
+        <v>15</v>
+      </c>
+      <c r="BI73">
+        <v>4</v>
+      </c>
+      <c r="BJ73">
+        <v>19</v>
+      </c>
+      <c r="BK73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>4933953</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45101.58333333334</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q74">
+        <v>6</v>
+      </c>
+      <c r="R74">
+        <v>9</v>
+      </c>
+      <c r="S74">
+        <v>15</v>
+      </c>
+      <c r="T74">
+        <v>2.75</v>
+      </c>
+      <c r="U74">
+        <v>2.3</v>
+      </c>
+      <c r="V74">
+        <v>3.1</v>
+      </c>
+      <c r="W74">
+        <v>1.3</v>
+      </c>
+      <c r="X74">
+        <v>3.4</v>
+      </c>
+      <c r="Y74">
+        <v>2.38</v>
+      </c>
+      <c r="Z74">
+        <v>1.53</v>
+      </c>
+      <c r="AA74">
+        <v>5</v>
+      </c>
+      <c r="AB74">
+        <v>1.14</v>
+      </c>
+      <c r="AC74">
+        <v>2.31</v>
+      </c>
+      <c r="AD74">
+        <v>3.5</v>
+      </c>
+      <c r="AE74">
+        <v>2.75</v>
+      </c>
+      <c r="AF74">
+        <v>1.03</v>
+      </c>
+      <c r="AG74">
+        <v>11</v>
+      </c>
+      <c r="AH74">
+        <v>1.18</v>
+      </c>
+      <c r="AI74">
+        <v>4.33</v>
+      </c>
+      <c r="AJ74">
+        <v>1.47</v>
+      </c>
+      <c r="AK74">
+        <v>2.55</v>
+      </c>
+      <c r="AL74">
+        <v>1.53</v>
+      </c>
+      <c r="AM74">
+        <v>2.38</v>
+      </c>
+      <c r="AN74">
+        <v>1.36</v>
+      </c>
+      <c r="AO74">
+        <v>1.22</v>
+      </c>
+      <c r="AP74">
+        <v>1.5</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
+        <v>0.75</v>
+      </c>
+      <c r="AS74">
+        <v>1.4</v>
+      </c>
+      <c r="AT74">
+        <v>0.6</v>
+      </c>
+      <c r="AU74">
+        <v>1.46</v>
+      </c>
+      <c r="AV74">
+        <v>1.17</v>
+      </c>
+      <c r="AW74">
+        <v>2.63</v>
+      </c>
+      <c r="AX74">
+        <v>1.95</v>
+      </c>
+      <c r="AY74">
+        <v>8.5</v>
+      </c>
+      <c r="AZ74">
+        <v>2.1</v>
+      </c>
+      <c r="BA74">
+        <v>1.1</v>
+      </c>
+      <c r="BB74">
+        <v>1.22</v>
+      </c>
+      <c r="BC74">
+        <v>1.43</v>
+      </c>
+      <c r="BD74">
+        <v>1.8</v>
+      </c>
+      <c r="BE74">
+        <v>2.19</v>
+      </c>
+      <c r="BF74">
+        <v>3</v>
+      </c>
+      <c r="BG74">
+        <v>0</v>
+      </c>
+      <c r="BH74">
+        <v>2</v>
+      </c>
+      <c r="BI74">
+        <v>6</v>
+      </c>
+      <c r="BJ74">
+        <v>5</v>
+      </c>
+      <c r="BK74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>4933954</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45101.67708333334</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q75">
+        <v>6</v>
+      </c>
+      <c r="R75">
+        <v>6</v>
+      </c>
+      <c r="S75">
+        <v>12</v>
+      </c>
+      <c r="T75">
+        <v>1.95</v>
+      </c>
+      <c r="U75">
+        <v>2.5</v>
+      </c>
+      <c r="V75">
+        <v>4.75</v>
+      </c>
+      <c r="W75">
+        <v>1.22</v>
+      </c>
+      <c r="X75">
+        <v>3.8</v>
+      </c>
+      <c r="Y75">
+        <v>2.15</v>
+      </c>
+      <c r="Z75">
+        <v>1.63</v>
+      </c>
+      <c r="AA75">
+        <v>4.2</v>
+      </c>
+      <c r="AB75">
+        <v>1.18</v>
+      </c>
+      <c r="AC75">
+        <v>1.48</v>
+      </c>
+      <c r="AD75">
+        <v>4.2</v>
+      </c>
+      <c r="AE75">
+        <v>4.85</v>
+      </c>
+      <c r="AF75">
+        <v>1.02</v>
+      </c>
+      <c r="AG75">
+        <v>13</v>
+      </c>
+      <c r="AH75">
+        <v>1.12</v>
+      </c>
+      <c r="AI75">
+        <v>5.2</v>
+      </c>
+      <c r="AJ75">
+        <v>1.57</v>
+      </c>
+      <c r="AK75">
+        <v>2.4</v>
+      </c>
+      <c r="AL75">
+        <v>1.57</v>
+      </c>
+      <c r="AM75">
+        <v>2.3</v>
+      </c>
+      <c r="AN75">
+        <v>1.07</v>
+      </c>
+      <c r="AO75">
+        <v>1.18</v>
+      </c>
+      <c r="AP75">
+        <v>2.6</v>
+      </c>
+      <c r="AQ75">
+        <v>2.57</v>
+      </c>
+      <c r="AR75">
+        <v>0.2</v>
+      </c>
+      <c r="AS75">
+        <v>2.63</v>
+      </c>
+      <c r="AT75">
+        <v>0.17</v>
+      </c>
+      <c r="AU75">
+        <v>1.67</v>
+      </c>
+      <c r="AV75">
+        <v>1.58</v>
+      </c>
+      <c r="AW75">
+        <v>3.25</v>
+      </c>
+      <c r="AX75">
+        <v>1.51</v>
+      </c>
+      <c r="AY75">
+        <v>9</v>
+      </c>
+      <c r="AZ75">
+        <v>2.96</v>
+      </c>
+      <c r="BA75">
+        <v>1.15</v>
+      </c>
+      <c r="BB75">
+        <v>1.16</v>
+      </c>
+      <c r="BC75">
+        <v>1.32</v>
+      </c>
+      <c r="BD75">
+        <v>1.61</v>
+      </c>
+      <c r="BE75">
+        <v>1.93</v>
+      </c>
+      <c r="BF75">
+        <v>4</v>
+      </c>
+      <c r="BG75">
+        <v>6</v>
+      </c>
+      <c r="BH75">
+        <v>9</v>
+      </c>
+      <c r="BI75">
+        <v>5</v>
+      </c>
+      <c r="BJ75">
+        <v>13</v>
+      </c>
+      <c r="BK75">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,15 @@
     <t>['29', '36']</t>
   </si>
   <si>
+    <t>['62', '66']</t>
+  </si>
+  <si>
+    <t>['42', '77']</t>
+  </si>
+  <si>
+    <t>['39', '56', '62']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -557,6 +566,9 @@
   </si>
   <si>
     <t>['10', '55', '57']</t>
+  </si>
+  <si>
+    <t>['54', '87']</t>
   </si>
 </sst>
 </file>
@@ -918,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK75"/>
+  <dimension ref="A1:BK78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1174,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1353,7 +1365,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1443,7 +1455,7 @@
         <v>1.43</v>
       </c>
       <c r="AT3">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1544,7 +1556,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1735,7 +1747,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1926,7 +1938,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2013,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT6">
         <v>0.83</v>
@@ -2117,7 +2129,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2207,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2308,7 +2320,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3072,7 +3084,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3263,7 +3275,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3454,7 +3466,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3541,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>1.75</v>
@@ -3735,7 +3747,7 @@
         <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU15">
         <v>1.26</v>
@@ -3836,7 +3848,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -3923,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT16">
         <v>2.57</v>
@@ -4027,7 +4039,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4409,7 +4421,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4499,7 +4511,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU19">
         <v>1.26</v>
@@ -4600,7 +4612,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5173,7 +5185,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5454,7 +5466,7 @@
         <v>2.63</v>
       </c>
       <c r="AT24">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>2.03</v>
@@ -5555,7 +5567,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5833,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT26">
         <v>0.57</v>
@@ -5937,7 +5949,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6128,7 +6140,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6215,10 +6227,10 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6319,7 +6331,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6510,7 +6522,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6701,7 +6713,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6791,7 +6803,7 @@
         <v>2.63</v>
       </c>
       <c r="AT31">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU31">
         <v>1.82</v>
@@ -6892,7 +6904,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -6982,7 +6994,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU32">
         <v>1.34</v>
@@ -7274,7 +7286,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7361,7 +7373,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>2.6</v>
@@ -7465,7 +7477,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7552,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT35">
         <v>0.17</v>
@@ -7656,7 +7668,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7746,7 +7758,7 @@
         <v>2.67</v>
       </c>
       <c r="AT36">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU36">
         <v>1.48</v>
@@ -7847,7 +7859,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8229,7 +8241,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8420,7 +8432,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8507,7 +8519,7 @@
         <v>2.25</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT40">
         <v>1.75</v>
@@ -8611,7 +8623,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8701,7 +8713,7 @@
         <v>0.5</v>
       </c>
       <c r="AT41">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU41">
         <v>1.25</v>
@@ -8993,7 +9005,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9274,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU44">
         <v>2.12</v>
@@ -9465,7 +9477,7 @@
         <v>1.83</v>
       </c>
       <c r="AT45">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU45">
         <v>1.46</v>
@@ -9566,7 +9578,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9757,7 +9769,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9844,7 +9856,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
         <v>0.83</v>
@@ -9948,7 +9960,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10139,7 +10151,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10226,7 +10238,7 @@
         <v>0.8</v>
       </c>
       <c r="AS49">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT49">
         <v>1.14</v>
@@ -10330,7 +10342,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10990,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT53">
         <v>0.17</v>
@@ -11094,7 +11106,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11184,7 +11196,7 @@
         <v>2.67</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU54">
         <v>1.43</v>
@@ -11285,7 +11297,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11667,7 +11679,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11945,10 +11957,10 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU58">
         <v>1.31</v>
@@ -12049,7 +12061,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12330,7 +12342,7 @@
         <v>1.67</v>
       </c>
       <c r="AT60">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>1.83</v>
@@ -12431,7 +12443,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12622,7 +12634,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12813,7 +12825,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12900,10 +12912,10 @@
         <v>1</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT63">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU63">
         <v>1.6</v>
@@ -13195,7 +13207,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13282,7 +13294,7 @@
         <v>0.5</v>
       </c>
       <c r="AS65">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
         <v>0.57</v>
@@ -13386,7 +13398,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13577,7 +13589,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13768,7 +13780,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13959,7 +13971,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14532,7 +14544,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14723,7 +14735,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14810,7 +14822,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AT73">
         <v>2.57</v>
@@ -15001,10 +15013,10 @@
         <v>0.75</v>
       </c>
       <c r="AS74">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AT74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU74">
         <v>1.46</v>
@@ -15247,6 +15259,579 @@
       </c>
       <c r="BK75">
         <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>4933888</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45105.58333333334</v>
+      </c>
+      <c r="F76">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>65</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2</v>
+      </c>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>6</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <v>2.1</v>
+      </c>
+      <c r="U76">
+        <v>2.5</v>
+      </c>
+      <c r="V76">
+        <v>4.33</v>
+      </c>
+      <c r="W76">
+        <v>1.25</v>
+      </c>
+      <c r="X76">
+        <v>3.75</v>
+      </c>
+      <c r="Y76">
+        <v>2.1</v>
+      </c>
+      <c r="Z76">
+        <v>1.67</v>
+      </c>
+      <c r="AA76">
+        <v>4.5</v>
+      </c>
+      <c r="AB76">
+        <v>1.18</v>
+      </c>
+      <c r="AC76">
+        <v>2.6</v>
+      </c>
+      <c r="AD76">
+        <v>3.65</v>
+      </c>
+      <c r="AE76">
+        <v>2.36</v>
+      </c>
+      <c r="AF76">
+        <v>1.02</v>
+      </c>
+      <c r="AG76">
+        <v>12</v>
+      </c>
+      <c r="AH76">
+        <v>1.15</v>
+      </c>
+      <c r="AI76">
+        <v>4.75</v>
+      </c>
+      <c r="AJ76">
+        <v>1.61</v>
+      </c>
+      <c r="AK76">
+        <v>2.2</v>
+      </c>
+      <c r="AL76">
+        <v>1.53</v>
+      </c>
+      <c r="AM76">
+        <v>2.38</v>
+      </c>
+      <c r="AN76">
+        <v>1.5</v>
+      </c>
+      <c r="AO76">
+        <v>1.25</v>
+      </c>
+      <c r="AP76">
+        <v>1.53</v>
+      </c>
+      <c r="AQ76">
+        <v>1.2</v>
+      </c>
+      <c r="AR76">
+        <v>0.6</v>
+      </c>
+      <c r="AS76">
+        <v>1.5</v>
+      </c>
+      <c r="AT76">
+        <v>0.5</v>
+      </c>
+      <c r="AU76">
+        <v>1.78</v>
+      </c>
+      <c r="AV76">
+        <v>1.17</v>
+      </c>
+      <c r="AW76">
+        <v>2.95</v>
+      </c>
+      <c r="AX76">
+        <v>2.1</v>
+      </c>
+      <c r="AY76">
+        <v>8.5</v>
+      </c>
+      <c r="AZ76">
+        <v>1.91</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>1.16</v>
+      </c>
+      <c r="BC76">
+        <v>1.32</v>
+      </c>
+      <c r="BD76">
+        <v>1.57</v>
+      </c>
+      <c r="BE76">
+        <v>1.95</v>
+      </c>
+      <c r="BF76">
+        <v>5</v>
+      </c>
+      <c r="BG76">
+        <v>6</v>
+      </c>
+      <c r="BH76">
+        <v>1</v>
+      </c>
+      <c r="BI76">
+        <v>8</v>
+      </c>
+      <c r="BJ76">
+        <v>6</v>
+      </c>
+      <c r="BK76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>4933956</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45105.67708333334</v>
+      </c>
+      <c r="F77">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>136</v>
+      </c>
+      <c r="P77" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q77">
+        <v>-1</v>
+      </c>
+      <c r="R77">
+        <v>-1</v>
+      </c>
+      <c r="S77">
+        <v>-1</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
+        <v>2.45</v>
+      </c>
+      <c r="V77">
+        <v>4.5</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>3.5</v>
+      </c>
+      <c r="Y77">
+        <v>2.2</v>
+      </c>
+      <c r="Z77">
+        <v>1.62</v>
+      </c>
+      <c r="AA77">
+        <v>4.5</v>
+      </c>
+      <c r="AB77">
+        <v>1.17</v>
+      </c>
+      <c r="AC77">
+        <v>1.61</v>
+      </c>
+      <c r="AD77">
+        <v>3.61</v>
+      </c>
+      <c r="AE77">
+        <v>4.31</v>
+      </c>
+      <c r="AF77">
+        <v>1.02</v>
+      </c>
+      <c r="AG77">
+        <v>12</v>
+      </c>
+      <c r="AH77">
+        <v>1.17</v>
+      </c>
+      <c r="AI77">
+        <v>4.5</v>
+      </c>
+      <c r="AJ77">
+        <v>1.7</v>
+      </c>
+      <c r="AK77">
+        <v>2.15</v>
+      </c>
+      <c r="AL77">
+        <v>1.62</v>
+      </c>
+      <c r="AM77">
+        <v>2.2</v>
+      </c>
+      <c r="AN77">
+        <v>1.15</v>
+      </c>
+      <c r="AO77">
+        <v>1.2</v>
+      </c>
+      <c r="AP77">
+        <v>2.38</v>
+      </c>
+      <c r="AQ77">
+        <v>1.4</v>
+      </c>
+      <c r="AR77">
+        <v>0.83</v>
+      </c>
+      <c r="AS77">
+        <v>1.67</v>
+      </c>
+      <c r="AT77">
+        <v>0.71</v>
+      </c>
+      <c r="AU77">
+        <v>1.4</v>
+      </c>
+      <c r="AV77">
+        <v>1.22</v>
+      </c>
+      <c r="AW77">
+        <v>2.62</v>
+      </c>
+      <c r="AX77">
+        <v>1.37</v>
+      </c>
+      <c r="AY77">
+        <v>10</v>
+      </c>
+      <c r="AZ77">
+        <v>3.68</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>1.15</v>
+      </c>
+      <c r="BC77">
+        <v>1.3</v>
+      </c>
+      <c r="BD77">
+        <v>1.55</v>
+      </c>
+      <c r="BE77">
+        <v>1.9</v>
+      </c>
+      <c r="BF77">
+        <v>-1</v>
+      </c>
+      <c r="BG77">
+        <v>-1</v>
+      </c>
+      <c r="BH77">
+        <v>-1</v>
+      </c>
+      <c r="BI77">
+        <v>-1</v>
+      </c>
+      <c r="BJ77">
+        <v>-1</v>
+      </c>
+      <c r="BK77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>4933959</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45105.67708333334</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>69</v>
+      </c>
+      <c r="H78" t="s">
+        <v>74</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>5</v>
+      </c>
+      <c r="O78" t="s">
+        <v>137</v>
+      </c>
+      <c r="P78" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q78">
+        <v>-1</v>
+      </c>
+      <c r="R78">
+        <v>-1</v>
+      </c>
+      <c r="S78">
+        <v>-1</v>
+      </c>
+      <c r="T78">
+        <v>2.46</v>
+      </c>
+      <c r="U78">
+        <v>2.46</v>
+      </c>
+      <c r="V78">
+        <v>3.58</v>
+      </c>
+      <c r="W78">
+        <v>1.24</v>
+      </c>
+      <c r="X78">
+        <v>3.82</v>
+      </c>
+      <c r="Y78">
+        <v>2.12</v>
+      </c>
+      <c r="Z78">
+        <v>1.68</v>
+      </c>
+      <c r="AA78">
+        <v>4.6</v>
+      </c>
+      <c r="AB78">
+        <v>1.18</v>
+      </c>
+      <c r="AC78">
+        <v>2.27</v>
+      </c>
+      <c r="AD78">
+        <v>3.44</v>
+      </c>
+      <c r="AE78">
+        <v>2.51</v>
+      </c>
+      <c r="AF78">
+        <v>1.02</v>
+      </c>
+      <c r="AG78">
+        <v>14</v>
+      </c>
+      <c r="AH78">
+        <v>1.11</v>
+      </c>
+      <c r="AI78">
+        <v>5.3</v>
+      </c>
+      <c r="AJ78">
+        <v>1.58</v>
+      </c>
+      <c r="AK78">
+        <v>2.28</v>
+      </c>
+      <c r="AL78">
+        <v>1.43</v>
+      </c>
+      <c r="AM78">
+        <v>2.7</v>
+      </c>
+      <c r="AN78">
+        <v>1.34</v>
+      </c>
+      <c r="AO78">
+        <v>1.25</v>
+      </c>
+      <c r="AP78">
+        <v>1.79</v>
+      </c>
+      <c r="AQ78">
+        <v>1.67</v>
+      </c>
+      <c r="AR78">
+        <v>1.5</v>
+      </c>
+      <c r="AS78">
+        <v>1.86</v>
+      </c>
+      <c r="AT78">
+        <v>1.29</v>
+      </c>
+      <c r="AU78">
+        <v>1.68</v>
+      </c>
+      <c r="AV78">
+        <v>1.45</v>
+      </c>
+      <c r="AW78">
+        <v>3.13</v>
+      </c>
+      <c r="AX78">
+        <v>1.75</v>
+      </c>
+      <c r="AY78">
+        <v>8.5</v>
+      </c>
+      <c r="AZ78">
+        <v>2.35</v>
+      </c>
+      <c r="BA78">
+        <v>1.12</v>
+      </c>
+      <c r="BB78">
+        <v>1.25</v>
+      </c>
+      <c r="BC78">
+        <v>1.47</v>
+      </c>
+      <c r="BD78">
+        <v>1.82</v>
+      </c>
+      <c r="BE78">
+        <v>2.27</v>
+      </c>
+      <c r="BF78">
+        <v>-1</v>
+      </c>
+      <c r="BG78">
+        <v>-1</v>
+      </c>
+      <c r="BH78">
+        <v>-1</v>
+      </c>
+      <c r="BI78">
+        <v>-1</v>
+      </c>
+      <c r="BJ78">
+        <v>-1</v>
+      </c>
+      <c r="BK78">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -430,6 +430,12 @@
     <t>['39', '56', '62']</t>
   </si>
   <si>
+    <t>['10', '12', '38', '51', '83']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -569,6 +575,9 @@
   </si>
   <si>
     <t>['54', '87']</t>
+  </si>
+  <si>
+    <t>['10', '52', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK78"/>
+  <dimension ref="A1:BK80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1174,7 +1183,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1365,7 +1374,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1452,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT3">
         <v>0.71</v>
@@ -1556,7 +1565,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1747,7 +1756,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1834,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT5">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1938,7 +1947,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2028,7 +2037,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2129,7 +2138,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2320,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3084,7 +3093,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3275,7 +3284,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3466,7 +3475,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3848,7 +3857,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4039,7 +4048,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4126,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU17">
         <v>1.66</v>
@@ -4421,7 +4430,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4508,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT19">
         <v>1.29</v>
@@ -4612,7 +4621,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -5185,7 +5194,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5567,7 +5576,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5949,7 +5958,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6039,7 +6048,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6140,7 +6149,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6331,7 +6340,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6418,7 +6427,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT29">
         <v>2.57</v>
@@ -6522,7 +6531,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6609,7 +6618,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT30">
         <v>1.75</v>
@@ -6713,7 +6722,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6904,7 +6913,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7286,7 +7295,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7376,7 +7385,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7477,7 +7486,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7668,7 +7677,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7859,7 +7868,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7946,7 +7955,7 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT37">
         <v>1.75</v>
@@ -8137,7 +8146,7 @@
         <v>0.75</v>
       </c>
       <c r="AS38">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
         <v>0.57</v>
@@ -8241,7 +8250,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8432,7 +8441,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8623,7 +8632,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8904,7 +8913,7 @@
         <v>2.63</v>
       </c>
       <c r="AT42">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU42">
         <v>1.86</v>
@@ -9005,7 +9014,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9092,7 +9101,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT43">
         <v>0.17</v>
@@ -9578,7 +9587,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9668,7 +9677,7 @@
         <v>1.17</v>
       </c>
       <c r="AT46">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9769,7 +9778,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9859,7 +9868,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU47">
         <v>1.38</v>
@@ -9960,7 +9969,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10047,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT48">
         <v>0.4</v>
@@ -10151,7 +10160,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10342,7 +10351,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10432,7 +10441,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10811,7 +10820,7 @@
         <v>0.6</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT52">
         <v>0.57</v>
@@ -11106,7 +11115,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11297,7 +11306,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11679,7 +11688,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -12061,7 +12070,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12148,7 +12157,7 @@
         <v>1.17</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
         <v>1.14</v>
@@ -12339,7 +12348,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AT60">
         <v>0.5</v>
@@ -12443,7 +12452,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12533,7 +12542,7 @@
         <v>2</v>
       </c>
       <c r="AT61">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12634,7 +12643,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12724,7 +12733,7 @@
         <v>1.83</v>
       </c>
       <c r="AT62">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU62">
         <v>1.67</v>
@@ -12825,7 +12834,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13207,7 +13216,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13398,7 +13407,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13589,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13780,7 +13789,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13971,7 +13980,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14544,7 +14553,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14735,7 +14744,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -15502,13 +15511,13 @@
         <v>80</v>
       </c>
       <c r="Q77">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R77">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S77">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T77">
         <v>2</v>
@@ -15625,22 +15634,22 @@
         <v>1.9</v>
       </c>
       <c r="BF77">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BG77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH77">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BI77">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ77">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK77">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:63">
@@ -15690,16 +15699,16 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q78">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R78">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S78">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T78">
         <v>2.46</v>
@@ -15816,22 +15825,404 @@
         <v>2.27</v>
       </c>
       <c r="BF78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG78">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH78">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI78">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ78">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK78">
-        <v>-1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>4933957</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45106.67708333334</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>68</v>
+      </c>
+      <c r="H79" t="s">
+        <v>72</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>5</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <v>2.66</v>
+      </c>
+      <c r="U79">
+        <v>2.32</v>
+      </c>
+      <c r="V79">
+        <v>3.5</v>
+      </c>
+      <c r="W79">
+        <v>1.29</v>
+      </c>
+      <c r="X79">
+        <v>3.42</v>
+      </c>
+      <c r="Y79">
+        <v>2.36</v>
+      </c>
+      <c r="Z79">
+        <v>1.55</v>
+      </c>
+      <c r="AA79">
+        <v>5.45</v>
+      </c>
+      <c r="AB79">
+        <v>1.13</v>
+      </c>
+      <c r="AC79">
+        <v>2.51</v>
+      </c>
+      <c r="AD79">
+        <v>3.45</v>
+      </c>
+      <c r="AE79">
+        <v>2.31</v>
+      </c>
+      <c r="AF79">
+        <v>1.03</v>
+      </c>
+      <c r="AG79">
+        <v>11</v>
+      </c>
+      <c r="AH79">
+        <v>1.16</v>
+      </c>
+      <c r="AI79">
+        <v>4.35</v>
+      </c>
+      <c r="AJ79">
+        <v>1.43</v>
+      </c>
+      <c r="AK79">
+        <v>2.44</v>
+      </c>
+      <c r="AL79">
+        <v>1.53</v>
+      </c>
+      <c r="AM79">
+        <v>2.4</v>
+      </c>
+      <c r="AN79">
+        <v>1.38</v>
+      </c>
+      <c r="AO79">
+        <v>1.27</v>
+      </c>
+      <c r="AP79">
+        <v>1.68</v>
+      </c>
+      <c r="AQ79">
+        <v>1.67</v>
+      </c>
+      <c r="AR79">
+        <v>0.83</v>
+      </c>
+      <c r="AS79">
+        <v>1.86</v>
+      </c>
+      <c r="AT79">
+        <v>0.71</v>
+      </c>
+      <c r="AU79">
+        <v>1.84</v>
+      </c>
+      <c r="AV79">
+        <v>1.53</v>
+      </c>
+      <c r="AW79">
+        <v>3.37</v>
+      </c>
+      <c r="AX79">
+        <v>1.75</v>
+      </c>
+      <c r="AY79">
+        <v>8.5</v>
+      </c>
+      <c r="AZ79">
+        <v>2.41</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>9</v>
+      </c>
+      <c r="BG79">
+        <v>3</v>
+      </c>
+      <c r="BH79">
+        <v>6</v>
+      </c>
+      <c r="BI79">
+        <v>3</v>
+      </c>
+      <c r="BJ79">
+        <v>15</v>
+      </c>
+      <c r="BK79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>4933958</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45106.67708333334</v>
+      </c>
+      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q80">
+        <v>4</v>
+      </c>
+      <c r="R80">
+        <v>9</v>
+      </c>
+      <c r="S80">
+        <v>13</v>
+      </c>
+      <c r="T80">
+        <v>5</v>
+      </c>
+      <c r="U80">
+        <v>2.63</v>
+      </c>
+      <c r="V80">
+        <v>1.95</v>
+      </c>
+      <c r="W80">
+        <v>1.22</v>
+      </c>
+      <c r="X80">
+        <v>4.05</v>
+      </c>
+      <c r="Y80">
+        <v>2.05</v>
+      </c>
+      <c r="Z80">
+        <v>1.73</v>
+      </c>
+      <c r="AA80">
+        <v>4.3</v>
+      </c>
+      <c r="AB80">
+        <v>1.2</v>
+      </c>
+      <c r="AC80">
+        <v>4.3</v>
+      </c>
+      <c r="AD80">
+        <v>3.95</v>
+      </c>
+      <c r="AE80">
+        <v>1.6</v>
+      </c>
+      <c r="AF80">
+        <v>1.01</v>
+      </c>
+      <c r="AG80">
+        <v>16.5</v>
+      </c>
+      <c r="AH80">
+        <v>1.11</v>
+      </c>
+      <c r="AI80">
+        <v>5.5</v>
+      </c>
+      <c r="AJ80">
+        <v>1.41</v>
+      </c>
+      <c r="AK80">
+        <v>2.48</v>
+      </c>
+      <c r="AL80">
+        <v>1.51</v>
+      </c>
+      <c r="AM80">
+        <v>2.45</v>
+      </c>
+      <c r="AN80">
+        <v>2.54</v>
+      </c>
+      <c r="AO80">
+        <v>1.18</v>
+      </c>
+      <c r="AP80">
+        <v>1.15</v>
+      </c>
+      <c r="AQ80">
+        <v>1.43</v>
+      </c>
+      <c r="AR80">
+        <v>2.6</v>
+      </c>
+      <c r="AS80">
+        <v>1.25</v>
+      </c>
+      <c r="AT80">
+        <v>2.67</v>
+      </c>
+      <c r="AU80">
+        <v>1.33</v>
+      </c>
+      <c r="AV80">
+        <v>1.93</v>
+      </c>
+      <c r="AW80">
+        <v>3.26</v>
+      </c>
+      <c r="AX80">
+        <v>3.68</v>
+      </c>
+      <c r="AY80">
+        <v>10</v>
+      </c>
+      <c r="AZ80">
+        <v>1.37</v>
+      </c>
+      <c r="BA80">
+        <v>0</v>
+      </c>
+      <c r="BB80">
+        <v>0</v>
+      </c>
+      <c r="BC80">
+        <v>0</v>
+      </c>
+      <c r="BD80">
+        <v>0</v>
+      </c>
+      <c r="BE80">
+        <v>2</v>
+      </c>
+      <c r="BF80">
+        <v>5</v>
+      </c>
+      <c r="BG80">
+        <v>7</v>
+      </c>
+      <c r="BH80">
+        <v>3</v>
+      </c>
+      <c r="BI80">
+        <v>3</v>
+      </c>
+      <c r="BJ80">
+        <v>8</v>
+      </c>
+      <c r="BK80">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Iceland Úrvalsdeild_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -436,6 +436,15 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['28', '52', '72', '80', '90+3']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['6', '14', '51']</t>
+  </si>
+  <si>
     <t>['83']</t>
   </si>
   <si>
@@ -578,6 +587,9 @@
   </si>
   <si>
     <t>['10', '52', '90+5']</t>
+  </si>
+  <si>
+    <t>['8', '12', '90+5']</t>
   </si>
 </sst>
 </file>
@@ -939,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK80"/>
+  <dimension ref="A1:BK83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1183,7 +1195,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1374,7 +1386,7 @@
         <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -1565,7 +1577,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1756,7 +1768,7 @@
         <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q5">
         <v>11</v>
@@ -1846,7 +1858,7 @@
         <v>1.86</v>
       </c>
       <c r="AT5">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1947,7 +1959,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -2138,7 +2150,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2225,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT7">
         <v>1.29</v>
@@ -2329,7 +2341,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2416,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT8">
         <v>1.14</v>
@@ -2992,7 +3004,7 @@
         <v>2.63</v>
       </c>
       <c r="AT11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3093,7 +3105,7 @@
         <v>80</v>
       </c>
       <c r="P12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3284,7 +3296,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3374,7 +3386,7 @@
         <v>1.17</v>
       </c>
       <c r="AT13">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3475,7 +3487,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3562,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT14">
         <v>1.75</v>
@@ -3857,7 +3869,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4048,7 +4060,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4430,7 +4442,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4621,7 +4633,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4708,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT20">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU20">
         <v>2.18</v>
@@ -5093,7 +5105,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU22">
         <v>1.39</v>
@@ -5194,7 +5206,7 @@
         <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -5281,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT23">
         <v>0.57</v>
@@ -5576,7 +5588,7 @@
         <v>97</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -5958,7 +5970,7 @@
         <v>99</v>
       </c>
       <c r="P27" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q27">
         <v>6</v>
@@ -6149,7 +6161,7 @@
         <v>80</v>
       </c>
       <c r="P28" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6340,7 +6352,7 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6531,7 +6543,7 @@
         <v>80</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -6722,7 +6734,7 @@
         <v>101</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6913,7 +6925,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7295,7 +7307,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -7382,10 +7394,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU34">
         <v>1.74</v>
@@ -7486,7 +7498,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7677,7 +7689,7 @@
         <v>105</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7868,7 +7880,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8250,7 +8262,7 @@
         <v>80</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8441,7 +8453,7 @@
         <v>80</v>
       </c>
       <c r="P40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8632,7 +8644,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8719,7 +8731,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT41">
         <v>1.29</v>
@@ -9014,7 +9026,7 @@
         <v>109</v>
       </c>
       <c r="P43" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9104,7 +9116,7 @@
         <v>1.25</v>
       </c>
       <c r="AT43">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU43">
         <v>1.24</v>
@@ -9292,7 +9304,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT44">
         <v>0.5</v>
@@ -9587,7 +9599,7 @@
         <v>111</v>
       </c>
       <c r="P46" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9677,7 +9689,7 @@
         <v>1.17</v>
       </c>
       <c r="AT46">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9778,7 +9790,7 @@
         <v>112</v>
       </c>
       <c r="P47" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q47">
         <v>2</v>
@@ -9865,7 +9877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
         <v>0.71</v>
@@ -9969,7 +9981,7 @@
         <v>113</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10059,7 +10071,7 @@
         <v>1.86</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU48">
         <v>1.85</v>
@@ -10160,7 +10172,7 @@
         <v>111</v>
       </c>
       <c r="P49" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10351,7 +10363,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>8</v>
@@ -10441,7 +10453,7 @@
         <v>1.75</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU50">
         <v>1.51</v>
@@ -10629,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT51">
         <v>2.57</v>
@@ -11115,7 +11127,7 @@
         <v>116</v>
       </c>
       <c r="P54" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11306,7 +11318,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11396,7 +11408,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU55">
         <v>1.39</v>
@@ -11584,7 +11596,7 @@
         <v>2.4</v>
       </c>
       <c r="AS56">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT56">
         <v>1.75</v>
@@ -11688,7 +11700,7 @@
         <v>118</v>
       </c>
       <c r="P57" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q57">
         <v>9</v>
@@ -11966,7 +11978,7 @@
         <v>1.8</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT58">
         <v>1.29</v>
@@ -12070,7 +12082,7 @@
         <v>120</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12452,7 +12464,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>7</v>
@@ -12539,10 +12551,10 @@
         <v>3</v>
       </c>
       <c r="AS61">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AT61">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU61">
         <v>1.9</v>
@@ -12643,7 +12655,7 @@
         <v>123</v>
       </c>
       <c r="P62" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q62">
         <v>14</v>
@@ -12834,7 +12846,7 @@
         <v>124</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -13115,7 +13127,7 @@
         <v>1.75</v>
       </c>
       <c r="AT64">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13216,7 +13228,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q65">
         <v>8</v>
@@ -13407,7 +13419,7 @@
         <v>127</v>
       </c>
       <c r="P66" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q66">
         <v>5</v>
@@ -13598,7 +13610,7 @@
         <v>80</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13789,7 +13801,7 @@
         <v>128</v>
       </c>
       <c r="P68" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13879,7 +13891,7 @@
         <v>2.63</v>
       </c>
       <c r="AT68">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU68">
         <v>1.69</v>
@@ -13980,7 +13992,7 @@
         <v>129</v>
       </c>
       <c r="P69" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14067,7 +14079,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT69">
         <v>0.17</v>
@@ -14261,7 +14273,7 @@
         <v>2.67</v>
       </c>
       <c r="AT70">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14449,10 +14461,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AT71">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AU71">
         <v>1.05</v>
@@ -14553,7 +14565,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -14744,7 +14756,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>13</v>
@@ -14831,7 +14843,7 @@
         <v>2.5</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT73">
         <v>2.57</v>
@@ -15404,7 +15416,7 @@
         <v>0.6</v>
       </c>
       <c r="AS76">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT76">
         <v>0.5</v>
@@ -15699,7 +15711,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16081,7 +16093,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>4</v>
@@ -16171,7 +16183,7 @@
         <v>1.25</v>
       </c>
       <c r="AT80">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU80">
         <v>1.33</v>
@@ -16223,6 +16235,579 @@
       </c>
       <c r="BK80">
         <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>4933916</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45114.67708333334</v>
+      </c>
+      <c r="F81">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>70</v>
+      </c>
+      <c r="H81" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>6</v>
+      </c>
+      <c r="O81" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q81">
+        <v>10</v>
+      </c>
+      <c r="R81">
+        <v>7</v>
+      </c>
+      <c r="S81">
+        <v>17</v>
+      </c>
+      <c r="T81">
+        <v>1.73</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>6.5</v>
+      </c>
+      <c r="W81">
+        <v>1.22</v>
+      </c>
+      <c r="X81">
+        <v>4</v>
+      </c>
+      <c r="Y81">
+        <v>2.1</v>
+      </c>
+      <c r="Z81">
+        <v>1.67</v>
+      </c>
+      <c r="AA81">
+        <v>4.33</v>
+      </c>
+      <c r="AB81">
+        <v>1.2</v>
+      </c>
+      <c r="AC81">
+        <v>1.22</v>
+      </c>
+      <c r="AD81">
+        <v>5.75</v>
+      </c>
+      <c r="AE81">
+        <v>9.5</v>
+      </c>
+      <c r="AF81">
+        <v>1.01</v>
+      </c>
+      <c r="AG81">
+        <v>21</v>
+      </c>
+      <c r="AH81">
+        <v>1.13</v>
+      </c>
+      <c r="AI81">
+        <v>5.75</v>
+      </c>
+      <c r="AJ81">
+        <v>1.39</v>
+      </c>
+      <c r="AK81">
+        <v>2.77</v>
+      </c>
+      <c r="AL81">
+        <v>1.73</v>
+      </c>
+      <c r="AM81">
+        <v>2</v>
+      </c>
+      <c r="AN81">
+        <v>1.03</v>
+      </c>
+      <c r="AO81">
+        <v>1.09</v>
+      </c>
+      <c r="AP81">
+        <v>3.1</v>
+      </c>
+      <c r="AQ81">
+        <v>2</v>
+      </c>
+      <c r="AR81">
+        <v>0.4</v>
+      </c>
+      <c r="AS81">
+        <v>2.17</v>
+      </c>
+      <c r="AT81">
+        <v>0.33</v>
+      </c>
+      <c r="AU81">
+        <v>1.81</v>
+      </c>
+      <c r="AV81">
+        <v>1.48</v>
+      </c>
+      <c r="AW81">
+        <v>3.29</v>
+      </c>
+      <c r="AX81">
+        <v>1.23</v>
+      </c>
+      <c r="AY81">
+        <v>11</v>
+      </c>
+      <c r="AZ81">
+        <v>5.1</v>
+      </c>
+      <c r="BA81">
+        <v>1.1</v>
+      </c>
+      <c r="BB81">
+        <v>1.15</v>
+      </c>
+      <c r="BC81">
+        <v>1.29</v>
+      </c>
+      <c r="BD81">
+        <v>1.6</v>
+      </c>
+      <c r="BE81">
+        <v>1.93</v>
+      </c>
+      <c r="BF81">
+        <v>9</v>
+      </c>
+      <c r="BG81">
+        <v>4</v>
+      </c>
+      <c r="BH81">
+        <v>4</v>
+      </c>
+      <c r="BI81">
+        <v>6</v>
+      </c>
+      <c r="BJ81">
+        <v>13</v>
+      </c>
+      <c r="BK81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4933961</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45115.54166666666</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s">
+        <v>75</v>
+      </c>
+      <c r="H82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q82">
+        <v>6</v>
+      </c>
+      <c r="R82">
+        <v>10</v>
+      </c>
+      <c r="S82">
+        <v>16</v>
+      </c>
+      <c r="T82">
+        <v>2.38</v>
+      </c>
+      <c r="U82">
+        <v>2.4</v>
+      </c>
+      <c r="V82">
+        <v>3.6</v>
+      </c>
+      <c r="W82">
+        <v>1.25</v>
+      </c>
+      <c r="X82">
+        <v>3.75</v>
+      </c>
+      <c r="Y82">
+        <v>2.2</v>
+      </c>
+      <c r="Z82">
+        <v>1.62</v>
+      </c>
+      <c r="AA82">
+        <v>4.5</v>
+      </c>
+      <c r="AB82">
+        <v>1.17</v>
+      </c>
+      <c r="AC82">
+        <v>1.98</v>
+      </c>
+      <c r="AD82">
+        <v>3.7</v>
+      </c>
+      <c r="AE82">
+        <v>3</v>
+      </c>
+      <c r="AF82">
+        <v>1.02</v>
+      </c>
+      <c r="AG82">
+        <v>17</v>
+      </c>
+      <c r="AH82">
+        <v>1.14</v>
+      </c>
+      <c r="AI82">
+        <v>5.25</v>
+      </c>
+      <c r="AJ82">
+        <v>1.39</v>
+      </c>
+      <c r="AK82">
+        <v>2.55</v>
+      </c>
+      <c r="AL82">
+        <v>1.5</v>
+      </c>
+      <c r="AM82">
+        <v>2.5</v>
+      </c>
+      <c r="AN82">
+        <v>1.31</v>
+      </c>
+      <c r="AO82">
+        <v>1.25</v>
+      </c>
+      <c r="AP82">
+        <v>1.83</v>
+      </c>
+      <c r="AQ82">
+        <v>1.5</v>
+      </c>
+      <c r="AR82">
+        <v>0.17</v>
+      </c>
+      <c r="AS82">
+        <v>1.71</v>
+      </c>
+      <c r="AT82">
+        <v>0.14</v>
+      </c>
+      <c r="AU82">
+        <v>1.64</v>
+      </c>
+      <c r="AV82">
+        <v>1.33</v>
+      </c>
+      <c r="AW82">
+        <v>2.97</v>
+      </c>
+      <c r="AX82">
+        <v>1.59</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>2.77</v>
+      </c>
+      <c r="BA82">
+        <v>1.11</v>
+      </c>
+      <c r="BB82">
+        <v>1.17</v>
+      </c>
+      <c r="BC82">
+        <v>1.33</v>
+      </c>
+      <c r="BD82">
+        <v>1.63</v>
+      </c>
+      <c r="BE82">
+        <v>1.96</v>
+      </c>
+      <c r="BF82">
+        <v>8</v>
+      </c>
+      <c r="BG82">
+        <v>2</v>
+      </c>
+      <c r="BH82">
+        <v>8</v>
+      </c>
+      <c r="BI82">
+        <v>7</v>
+      </c>
+      <c r="BJ82">
+        <v>16</v>
+      </c>
+      <c r="BK82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>4933962</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45115.58333333334</v>
+      </c>
+      <c r="F83">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H83" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>6</v>
+      </c>
+      <c r="O83" t="s">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83">
+        <v>7</v>
+      </c>
+      <c r="T83">
+        <v>5.5</v>
+      </c>
+      <c r="U83">
+        <v>2.5</v>
+      </c>
+      <c r="V83">
+        <v>1.91</v>
+      </c>
+      <c r="W83">
+        <v>1.25</v>
+      </c>
+      <c r="X83">
+        <v>3.75</v>
+      </c>
+      <c r="Y83">
+        <v>2.2</v>
+      </c>
+      <c r="Z83">
+        <v>1.62</v>
+      </c>
+      <c r="AA83">
+        <v>4.5</v>
+      </c>
+      <c r="AB83">
+        <v>1.17</v>
+      </c>
+      <c r="AC83">
+        <v>5.25</v>
+      </c>
+      <c r="AD83">
+        <v>4.7</v>
+      </c>
+      <c r="AE83">
+        <v>1.41</v>
+      </c>
+      <c r="AF83">
+        <v>1.02</v>
+      </c>
+      <c r="AG83">
+        <v>17</v>
+      </c>
+      <c r="AH83">
+        <v>1.15</v>
+      </c>
+      <c r="AI83">
+        <v>5</v>
+      </c>
+      <c r="AJ83">
+        <v>1.35</v>
+      </c>
+      <c r="AK83">
+        <v>2.7</v>
+      </c>
+      <c r="AL83">
+        <v>1.67</v>
+      </c>
+      <c r="AM83">
+        <v>2.1</v>
+      </c>
+      <c r="AN83">
+        <v>2.65</v>
+      </c>
+      <c r="AO83">
+        <v>1.18</v>
+      </c>
+      <c r="AP83">
+        <v>1.12</v>
+      </c>
+      <c r="AQ83">
+        <v>0.5</v>
+      </c>
+      <c r="AR83">
+        <v>2.67</v>
+      </c>
+      <c r="AS83">
+        <v>0.57</v>
+      </c>
+      <c r="AT83">
+        <v>2.43</v>
+      </c>
+      <c r="AU83">
+        <v>1.18</v>
+      </c>
+      <c r="AV83">
+        <v>1.93</v>
+      </c>
+      <c r="AW83">
+        <v>3.11</v>
+      </c>
+      <c r="AX83">
+        <v>3.59</v>
+      </c>
+      <c r="AY83">
+        <v>10</v>
+      </c>
+      <c r="AZ83">
+        <v>1.37</v>
+      </c>
+      <c r="BA83">
+        <v>1.09</v>
+      </c>
+      <c r="BB83">
+        <v>1.21</v>
+      </c>
+      <c r="BC83">
+        <v>1.4</v>
+      </c>
+      <c r="BD83">
+        <v>1.74</v>
+      </c>
+      <c r="BE83">
+        <v>2</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>5</v>
+      </c>
+      <c r="BI83">
+        <v>7</v>
+      </c>
+      <c r="BJ83">
+        <v>9</v>
+      </c>
+      <c r="BK83">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
